--- a/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.95978430308651</v>
+        <v>21.22207266620864</v>
       </c>
       <c r="C2">
-        <v>11.82516491046098</v>
+        <v>14.89254633175798</v>
       </c>
       <c r="D2">
-        <v>9.967226722836612</v>
+        <v>3.823116594742055</v>
       </c>
       <c r="E2">
-        <v>12.64685381950224</v>
+        <v>11.44328905553797</v>
       </c>
       <c r="F2">
-        <v>63.29491244355388</v>
+        <v>35.83162210147295</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -436,33 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.78163571959911</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.86679307883539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.2880124713758</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.00955388651573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.60913885422826</v>
+        <v>19.72984985272937</v>
       </c>
       <c r="C3">
-        <v>10.9519875434615</v>
+        <v>13.91388059012142</v>
       </c>
       <c r="D3">
-        <v>9.491841948688412</v>
+        <v>3.877838559790224</v>
       </c>
       <c r="E3">
-        <v>11.87277283282578</v>
+        <v>10.8100235010967</v>
       </c>
       <c r="F3">
-        <v>59.41620701708612</v>
+        <v>33.89866152028318</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -471,33 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.629185318612</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.65026023897368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17.02431963299065</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.64896284191913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.74429037258951</v>
+        <v>18.76674449336547</v>
       </c>
       <c r="C4">
-        <v>10.39504717986806</v>
+        <v>13.28389575186635</v>
       </c>
       <c r="D4">
-        <v>9.194740440612167</v>
+        <v>3.913451552533456</v>
       </c>
       <c r="E4">
-        <v>11.38653128607998</v>
+        <v>10.4172263995179</v>
       </c>
       <c r="F4">
-        <v>56.96444372711614</v>
+        <v>32.69900582615616</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -506,33 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.89157465348446</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.87132380977026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.21137131882619</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>25.81230982552141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.38262610998129</v>
+        <v>18.36228324939015</v>
       </c>
       <c r="C5">
-        <v>10.16262179535107</v>
+        <v>13.01975981388143</v>
       </c>
       <c r="D5">
-        <v>9.072351100281034</v>
+        <v>3.928430728282373</v>
       </c>
       <c r="E5">
-        <v>11.18566420549084</v>
+        <v>10.2562569096011</v>
       </c>
       <c r="F5">
-        <v>55.94768999089253</v>
+        <v>32.2072796008361</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -541,33 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.58317918136534</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.54559262315751</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.87060331326723</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25.47130263659359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.32200650645126</v>
+        <v>18.29439309111839</v>
       </c>
       <c r="C6">
-        <v>10.12369107467435</v>
+        <v>12.97545003045763</v>
       </c>
       <c r="D6">
-        <v>9.051949093459266</v>
+        <v>3.930945142538882</v>
       </c>
       <c r="E6">
-        <v>11.15214818380963</v>
+        <v>10.22947723435705</v>
       </c>
       <c r="F6">
-        <v>55.77779834057077</v>
+        <v>32.12546926855547</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -576,33 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.53149108451363</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.49099614797773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.81344150974687</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.41468340653594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.73945058450735</v>
+        <v>18.761338583211</v>
       </c>
       <c r="C7">
-        <v>10.3919350422248</v>
+        <v>13.28036365122494</v>
       </c>
       <c r="D7">
-        <v>9.193095183711893</v>
+        <v>3.913651725821568</v>
       </c>
       <c r="E7">
-        <v>11.38383324892643</v>
+        <v>10.41505900047516</v>
       </c>
       <c r="F7">
-        <v>56.9508026651983</v>
+        <v>32.69238523197384</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -611,33 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.88744749618528</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.86696485712709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.20681422055074</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>25.8077107629413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.50127271789218</v>
+        <v>20.71715770047987</v>
       </c>
       <c r="C8">
-        <v>11.52826145924201</v>
+        <v>14.56107204832212</v>
       </c>
       <c r="D8">
-        <v>9.804383870120606</v>
+        <v>3.8415409444977</v>
       </c>
       <c r="E8">
-        <v>12.38222734580141</v>
+        <v>11.22580770904917</v>
       </c>
       <c r="F8">
-        <v>61.97204793481244</v>
+        <v>35.16797663107207</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -646,33 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.39032692234154</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.45380031054518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.85986831058846</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.5408064451393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.68930466731268</v>
+        <v>24.19043941458093</v>
       </c>
       <c r="C9">
-        <v>13.60368936990614</v>
+        <v>16.8473263998652</v>
       </c>
       <c r="D9">
-        <v>10.96354646929307</v>
+        <v>3.71827091688433</v>
       </c>
       <c r="E9">
-        <v>14.25469252166498</v>
+        <v>12.78227185673466</v>
       </c>
       <c r="F9">
-        <v>71.27345410733112</v>
+        <v>39.91159271790406</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -681,33 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.1132046393553</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.32559440856193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20.8164795773995</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>30.92281658881842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.8935601889979</v>
+        <v>26.53666167941244</v>
       </c>
       <c r="C10">
-        <v>15.05520510308556</v>
+        <v>18.39900735068646</v>
       </c>
       <c r="D10">
-        <v>11.79597358811633</v>
+        <v>3.642476957178993</v>
       </c>
       <c r="E10">
-        <v>15.58506844176405</v>
+        <v>13.91263984602146</v>
       </c>
       <c r="F10">
-        <v>77.81042601257911</v>
+        <v>43.32644312715522</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -716,33 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.99934101563868</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.31164434715921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22.82902869921021</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.39527617844492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.87316933822738</v>
+        <v>27.56320767397853</v>
       </c>
       <c r="C11">
-        <v>15.70513135021507</v>
+        <v>19.07963675894892</v>
       </c>
       <c r="D11">
-        <v>12.17236242953652</v>
+        <v>3.612282739674905</v>
       </c>
       <c r="E11">
-        <v>16.22509496768116</v>
+        <v>14.50324990335004</v>
       </c>
       <c r="F11">
-        <v>80.73344530801612</v>
+        <v>44.86703626189957</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -751,33 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.83868926758413</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.19443341040154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>23.71361370199832</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.51901196186382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.24149586003982</v>
+        <v>27.94643744921859</v>
       </c>
       <c r="C12">
-        <v>15.95031928911244</v>
+        <v>19.3339948872555</v>
       </c>
       <c r="D12">
-        <v>12.31478289588637</v>
+        <v>3.601579273326391</v>
       </c>
       <c r="E12">
-        <v>16.47299880466368</v>
+        <v>14.72502929009807</v>
       </c>
       <c r="F12">
-        <v>81.83461823421024</v>
+        <v>45.44896334660083</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -786,33 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.15447371301069</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.52638470237143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>24.04449452141367</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>34.94467987109972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.16227460756764</v>
+        <v>27.86414045418607</v>
       </c>
       <c r="C13">
-        <v>15.89754455765516</v>
+        <v>19.27936033752485</v>
       </c>
       <c r="D13">
-        <v>12.28411082640802</v>
+        <v>3.603849904540616</v>
       </c>
       <c r="E13">
-        <v>16.41968110879682</v>
+        <v>14.67734320069487</v>
       </c>
       <c r="F13">
-        <v>81.59768522617648</v>
+        <v>45.32369208841971</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -821,33 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.08654414979654</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.45498580486521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>23.97340919221884</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>34.85299295999371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.90352003459017</v>
+        <v>27.59484422771721</v>
       </c>
       <c r="C14">
-        <v>15.72531799367208</v>
+        <v>19.10062916592852</v>
       </c>
       <c r="D14">
-        <v>12.18408017180816</v>
+        <v>3.61138678413684</v>
       </c>
       <c r="E14">
-        <v>16.24552375755914</v>
+        <v>14.52153149271559</v>
       </c>
       <c r="F14">
-        <v>80.82414336925865</v>
+        <v>44.91493827104235</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -856,33 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.86470627965371</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.22178611558257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23.74091525708101</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.55402720183488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.74470575939677</v>
+        <v>27.42918764943411</v>
       </c>
       <c r="C15">
-        <v>15.61972254120551</v>
+        <v>18.99071881446405</v>
       </c>
       <c r="D15">
-        <v>12.12280175865405</v>
+        <v>3.616102242962829</v>
       </c>
       <c r="E15">
-        <v>16.13862509211767</v>
+        <v>14.42585805980201</v>
       </c>
       <c r="F15">
-        <v>80.34963694161308</v>
+        <v>44.66438854061604</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -891,33 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.72857673503459</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.07866044500728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>23.5979845180461</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.3709298134892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.82913160878113</v>
+        <v>26.4687840166305</v>
       </c>
       <c r="C16">
-        <v>15.0125680944401</v>
+        <v>18.35403907635306</v>
       </c>
       <c r="D16">
-        <v>11.77134703494782</v>
+        <v>3.644545706898609</v>
       </c>
       <c r="E16">
-        <v>15.54585854246608</v>
+        <v>13.87376315680649</v>
       </c>
       <c r="F16">
-        <v>77.61850538025655</v>
+        <v>43.22553254379834</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -926,33 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.94416284681075</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.25358722583021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>22.77062579403029</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.32183816985532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.26198946732362</v>
+        <v>25.86940959845568</v>
       </c>
       <c r="C17">
-        <v>14.63781106513044</v>
+        <v>17.95715711782567</v>
       </c>
       <c r="D17">
-        <v>11.55529262964526</v>
+        <v>3.66316677398513</v>
       </c>
       <c r="E17">
-        <v>15.20149229854378</v>
+        <v>13.58122628652279</v>
       </c>
       <c r="F17">
-        <v>75.93105829421928</v>
+        <v>42.33977534708453</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -961,33 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.45857893725818</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.7425488543309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>22.25538273634394</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.67815708235339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.93355996385935</v>
+        <v>25.52080443738543</v>
       </c>
       <c r="C18">
-        <v>14.42124448211123</v>
+        <v>17.72648864773427</v>
       </c>
       <c r="D18">
-        <v>11.43079225776232</v>
+        <v>3.674272373271199</v>
       </c>
       <c r="E18">
-        <v>15.00274313580761</v>
+        <v>13.41303587347143</v>
       </c>
       <c r="F18">
-        <v>74.95559578155661</v>
+        <v>41.82907015862749</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -996,33 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.17748352123256</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.44662303204537</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>21.95609285018491</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.30781089807075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.8219582738272</v>
+        <v>25.4020993707013</v>
       </c>
       <c r="C19">
-        <v>14.34772868186695</v>
+        <v>17.6479704216245</v>
       </c>
       <c r="D19">
-        <v>11.38859308492789</v>
+        <v>3.678097297290664</v>
       </c>
       <c r="E19">
-        <v>14.93532451520347</v>
+        <v>13.35603535717204</v>
       </c>
       <c r="F19">
-        <v>74.62444006140632</v>
+        <v>41.65593190925208</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1031,33 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.08198303923578</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.34606850237078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>21.8542441960499</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.18239136888853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.32258831467168</v>
+        <v>25.93361114691897</v>
       </c>
       <c r="C20">
-        <v>14.67780600958437</v>
+        <v>17.99965181723417</v>
       </c>
       <c r="D20">
-        <v>11.57831456372991</v>
+        <v>3.661142865089269</v>
       </c>
       <c r="E20">
-        <v>15.23821872902179</v>
+        <v>13.61232983004178</v>
       </c>
       <c r="F20">
-        <v>76.111185652923</v>
+        <v>42.43419188922053</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1066,33 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.51045235070086</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.79715153225214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>22.31053265722186</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.74668861723183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.9795876989262</v>
+        <v>27.67408923741035</v>
       </c>
       <c r="C21">
-        <v>15.77592512896243</v>
+        <v>19.1532164460574</v>
       </c>
       <c r="D21">
-        <v>12.21346252576187</v>
+        <v>3.609152171923505</v>
       </c>
       <c r="E21">
-        <v>16.29672337340662</v>
+        <v>14.5673453967092</v>
       </c>
       <c r="F21">
-        <v>81.05149166772568</v>
+        <v>45.03503497969569</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1101,33 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.92991571238593</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.29034042189262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>23.809312329211</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.64183422971949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.04762941543101</v>
+        <v>28.77973263669952</v>
       </c>
       <c r="C22">
-        <v>16.48856941125039</v>
+        <v>19.8875724466916</v>
       </c>
       <c r="D22">
-        <v>12.62807748751124</v>
+        <v>3.579501075517613</v>
       </c>
       <c r="E22">
-        <v>17.01546117732985</v>
+        <v>15.20973716008548</v>
       </c>
       <c r="F22">
-        <v>84.24803596264356</v>
+        <v>46.7698266684035</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1136,33 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.84600388930956</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.25296555888571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>24.76520317896317</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>35.88142194818247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.47869234250504</v>
+        <v>28.19241291976027</v>
       </c>
       <c r="C23">
-        <v>16.10846018842143</v>
+        <v>19.49733060884456</v>
       </c>
       <c r="D23">
-        <v>12.40674531420984</v>
+        <v>3.594886492402582</v>
       </c>
       <c r="E23">
-        <v>16.63262884887682</v>
+        <v>14.8677533647993</v>
       </c>
       <c r="F23">
-        <v>82.54429221317609</v>
+        <v>45.824367887264</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1171,33 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.35789261257067</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.74016491906085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>24.25705829183446</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.21961386236958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.29519901405098</v>
+        <v>25.90459816494909</v>
       </c>
       <c r="C24">
-        <v>14.65972780525115</v>
+        <v>17.98044775548022</v>
       </c>
       <c r="D24">
-        <v>11.56790725926814</v>
+        <v>3.662056636431528</v>
       </c>
       <c r="E24">
-        <v>15.22161712769272</v>
+        <v>13.59826907006247</v>
       </c>
       <c r="F24">
-        <v>76.02976677833544</v>
+        <v>42.39151078105239</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1206,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.48700642711264</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.77247231991802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>22.28560896583505</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.71570641840086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.85310594093528</v>
+        <v>23.28811614885932</v>
       </c>
       <c r="C25">
-        <v>13.05673137901645</v>
+        <v>16.25207699980761</v>
       </c>
       <c r="D25">
-        <v>10.653821971882</v>
+        <v>3.749337192555636</v>
       </c>
       <c r="E25">
-        <v>13.75682634044412</v>
+        <v>12.36486327348761</v>
       </c>
       <c r="F25">
-        <v>68.81286434998574</v>
+        <v>38.64097782066003</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1241,13 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.39849583282225</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.57227908729068</v>
+        <v>20.04580497809307</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.01024814580722</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.22207266620864</v>
+        <v>12.9149083119896</v>
       </c>
       <c r="C2">
-        <v>14.89254633175798</v>
+        <v>7.545109923437298</v>
       </c>
       <c r="D2">
-        <v>3.823116594742055</v>
+        <v>4.817508608328603</v>
       </c>
       <c r="E2">
-        <v>11.44328905553797</v>
+        <v>7.976221163114134</v>
       </c>
       <c r="F2">
-        <v>35.83162210147295</v>
+        <v>27.55616042640758</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.444149782021798</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.39236836798189</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.177705931994567</v>
       </c>
       <c r="M2">
-        <v>18.2880124713758</v>
+        <v>9.724795262755489</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.00955388651573</v>
+        <v>20.95938645654791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72984985272937</v>
+        <v>12.14858397635167</v>
       </c>
       <c r="C3">
-        <v>13.91388059012142</v>
+        <v>7.517766199880775</v>
       </c>
       <c r="D3">
-        <v>3.877838559790224</v>
+        <v>4.682944873003382</v>
       </c>
       <c r="E3">
-        <v>10.8100235010967</v>
+        <v>7.990396661712554</v>
       </c>
       <c r="F3">
-        <v>33.89866152028318</v>
+        <v>27.51358825111737</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.495408469663295</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.792004981492584</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.116901434153323</v>
       </c>
       <c r="M3">
-        <v>17.02431963299065</v>
+        <v>9.447280172653935</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.64896284191913</v>
+        <v>21.0400514425601</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76674449336547</v>
+        <v>11.65655149655432</v>
       </c>
       <c r="C4">
-        <v>13.28389575186635</v>
+        <v>7.501415791604908</v>
       </c>
       <c r="D4">
-        <v>3.913451552533456</v>
+        <v>4.599954652562571</v>
       </c>
       <c r="E4">
-        <v>10.4172263995179</v>
+        <v>8.001780789045558</v>
       </c>
       <c r="F4">
-        <v>32.69900582615616</v>
+        <v>27.50539329672295</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.52795997985338</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.40400197757541</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.081205809567302</v>
       </c>
       <c r="M4">
-        <v>16.21137131882619</v>
+        <v>9.276066023477636</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.81230982552141</v>
+        <v>21.10243456137474</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.36228324939015</v>
+        <v>11.45077954746516</v>
       </c>
       <c r="C5">
-        <v>13.01975981388143</v>
+        <v>7.494861851021901</v>
       </c>
       <c r="D5">
-        <v>3.928430728282373</v>
+        <v>4.566090179977038</v>
       </c>
       <c r="E5">
-        <v>10.2562569096011</v>
+        <v>8.007083920413628</v>
       </c>
       <c r="F5">
-        <v>32.2072796008361</v>
+        <v>27.50643843882558</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.541499844161075</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.241054310084984</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.067078531192889</v>
       </c>
       <c r="M5">
-        <v>15.87060331326723</v>
+        <v>9.20618508484085</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.47130263659359</v>
+        <v>21.13098190515007</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.29439309111839</v>
+        <v>11.41629818824949</v>
       </c>
       <c r="C6">
-        <v>12.97545003045763</v>
+        <v>7.49378011968939</v>
       </c>
       <c r="D6">
-        <v>3.930945142538882</v>
+        <v>4.560465699716899</v>
       </c>
       <c r="E6">
-        <v>10.22947723435705</v>
+        <v>8.008004315495208</v>
       </c>
       <c r="F6">
-        <v>32.12546926855547</v>
+        <v>27.50687302593107</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.543764834578276</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.213706486700236</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.064758202535837</v>
       </c>
       <c r="M6">
-        <v>15.81344150974687</v>
+        <v>9.194577688703307</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.41468340653594</v>
+        <v>21.13590788816861</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.761338583211</v>
+        <v>11.65379748538483</v>
       </c>
       <c r="C7">
-        <v>13.28036365122494</v>
+        <v>7.501326963280013</v>
       </c>
       <c r="D7">
-        <v>3.913651725821568</v>
+        <v>4.59949806371884</v>
       </c>
       <c r="E7">
-        <v>10.41505900047516</v>
+        <v>8.001849633500612</v>
       </c>
       <c r="F7">
-        <v>32.69238523197384</v>
+        <v>27.50538980900646</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.528141465511994</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.401823915876438</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.081013579026892</v>
       </c>
       <c r="M7">
-        <v>16.20681422055074</v>
+        <v>9.275123898322416</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.8077107629413</v>
+        <v>21.1028070438611</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.71715770047987</v>
+        <v>12.65521862853503</v>
       </c>
       <c r="C8">
-        <v>14.56107204832212</v>
+        <v>7.535589885881013</v>
       </c>
       <c r="D8">
-        <v>3.8415409444977</v>
+        <v>4.771214803784321</v>
       </c>
       <c r="E8">
-        <v>11.22580770904917</v>
+        <v>7.980546542381712</v>
       </c>
       <c r="F8">
-        <v>35.16797663107207</v>
+        <v>27.5376811602027</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.461602188526465</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.18940418666191</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.156404800939619</v>
       </c>
       <c r="M8">
-        <v>17.85986831058846</v>
+        <v>9.629333926312361</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.5408064451393</v>
+        <v>20.98446682093436</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.19043941458093</v>
+        <v>14.44371119056729</v>
       </c>
       <c r="C9">
-        <v>16.8473263998652</v>
+        <v>7.606332800977772</v>
       </c>
       <c r="D9">
-        <v>3.71827091688433</v>
+        <v>5.10310424439442</v>
       </c>
       <c r="E9">
-        <v>12.78227185673466</v>
+        <v>7.960491935560551</v>
       </c>
       <c r="F9">
-        <v>39.91159271790406</v>
+        <v>27.74895903302832</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.33950322067991</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.57904103055585</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.316919952573177</v>
       </c>
       <c r="M9">
-        <v>20.8164795773995</v>
+        <v>10.31352565632612</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.92281658881842</v>
+        <v>20.8593059490195</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.53666167941244</v>
+        <v>15.67426714950537</v>
       </c>
       <c r="C10">
-        <v>18.39900735068646</v>
+        <v>7.660592858375395</v>
       </c>
       <c r="D10">
-        <v>3.642476957178993</v>
+        <v>5.341629706795701</v>
       </c>
       <c r="E10">
-        <v>13.91263984602146</v>
+        <v>7.959633053985406</v>
       </c>
       <c r="F10">
-        <v>43.32644312715522</v>
+        <v>28.00179520685038</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.254657804055467</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.50500903904412</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.442115453898786</v>
       </c>
       <c r="M10">
-        <v>22.82902869921021</v>
+        <v>10.80509575874028</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.39527617844492</v>
+        <v>20.83944781558612</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.56320767397853</v>
+        <v>16.23915118818566</v>
       </c>
       <c r="C11">
-        <v>19.07963675894892</v>
+        <v>7.685804039779355</v>
       </c>
       <c r="D11">
-        <v>3.612282739674905</v>
+        <v>5.448557326858119</v>
       </c>
       <c r="E11">
-        <v>14.50324990335004</v>
+        <v>7.9623945036962</v>
       </c>
       <c r="F11">
-        <v>44.86703626189957</v>
+        <v>28.13953075263331</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.217057769299981</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.90567461553145</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.500545197093698</v>
       </c>
       <c r="M11">
-        <v>23.71361370199832</v>
+        <v>11.02545398056414</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.51901196186382</v>
+        <v>20.84761270136254</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.94643744921859</v>
+        <v>16.4486257203103</v>
       </c>
       <c r="C12">
-        <v>19.3339948872555</v>
+        <v>7.695429551264652</v>
       </c>
       <c r="D12">
-        <v>3.601579273326391</v>
+        <v>5.488789945912694</v>
       </c>
       <c r="E12">
-        <v>14.72502929009807</v>
+        <v>7.963905101591365</v>
       </c>
       <c r="F12">
-        <v>45.44896334660083</v>
+        <v>28.19507372595707</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.202958115131783</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.05445126011004</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.522874691511641</v>
       </c>
       <c r="M12">
-        <v>24.04449452141367</v>
+        <v>11.108367821646</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.94467987109972</v>
+        <v>20.85330820643071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.86414045418607</v>
+        <v>16.40370803622451</v>
       </c>
       <c r="C13">
-        <v>19.27936033752485</v>
+        <v>7.693352984289158</v>
       </c>
       <c r="D13">
-        <v>3.603849904540616</v>
+        <v>5.480137093638246</v>
       </c>
       <c r="E13">
-        <v>14.67734320069487</v>
+        <v>7.963558903466388</v>
       </c>
       <c r="F13">
-        <v>45.32369208841971</v>
+        <v>28.18295912936326</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.205988636887878</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.02254038195596</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.518056730618977</v>
       </c>
       <c r="M13">
-        <v>23.97340919221884</v>
+        <v>11.09053537020425</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.85299295999371</v>
+        <v>20.85196367328787</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.59484422771721</v>
+        <v>16.25647336439081</v>
       </c>
       <c r="C14">
-        <v>19.10062916592852</v>
+        <v>7.686594345077995</v>
       </c>
       <c r="D14">
-        <v>3.61138678413684</v>
+        <v>5.451872637920726</v>
       </c>
       <c r="E14">
-        <v>14.52153149271559</v>
+        <v>7.96250939691063</v>
       </c>
       <c r="F14">
-        <v>44.91493827104235</v>
+        <v>28.14403178870387</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.215895030543115</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.91797353792693</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.502378232509407</v>
       </c>
       <c r="M14">
-        <v>23.74091525708101</v>
+        <v>11.03228632430563</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.55402720183488</v>
+        <v>20.84802833606917</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.42918764943411</v>
+        <v>16.16571188459894</v>
       </c>
       <c r="C15">
-        <v>18.99071881446405</v>
+        <v>7.682464801775923</v>
       </c>
       <c r="D15">
-        <v>3.616102242962829</v>
+        <v>5.434525298724719</v>
       </c>
       <c r="E15">
-        <v>14.42585805980201</v>
+        <v>7.961927435815547</v>
       </c>
       <c r="F15">
-        <v>44.66438854061604</v>
+        <v>28.12063202292012</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.221980899602024</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.85353997547218</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.492800924725602</v>
       </c>
       <c r="M15">
-        <v>23.5979845180461</v>
+        <v>10.99653622809842</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.3709298134892</v>
+        <v>20.84596081857117</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.4687840166305</v>
+        <v>15.63672723832943</v>
       </c>
       <c r="C16">
-        <v>18.35403907635306</v>
+        <v>7.658956093158182</v>
       </c>
       <c r="D16">
-        <v>3.644545706898609</v>
+        <v>5.334607187926429</v>
       </c>
       <c r="E16">
-        <v>13.87376315680649</v>
+        <v>7.959517004592528</v>
       </c>
       <c r="F16">
-        <v>43.22553254379834</v>
+        <v>27.99326124099955</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.257134715840309</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.47841156856417</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.438325888562191</v>
       </c>
       <c r="M16">
-        <v>22.77062579403029</v>
+        <v>10.79062373659911</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.32183816985532</v>
+        <v>20.83927139436909</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.86940959845568</v>
+        <v>15.30547395843417</v>
       </c>
       <c r="C17">
-        <v>17.95715711782567</v>
+        <v>7.644671288983028</v>
       </c>
       <c r="D17">
-        <v>3.66316677398513</v>
+        <v>5.27288270726385</v>
       </c>
       <c r="E17">
-        <v>13.58122628652279</v>
+        <v>7.958853826408473</v>
       </c>
       <c r="F17">
-        <v>42.33977534708453</v>
+        <v>27.92102771408265</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.278952446382377</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.24302130373307</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.405279190544047</v>
       </c>
       <c r="M17">
-        <v>22.25538273634394</v>
+        <v>10.66342145271462</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.67815708235339</v>
+        <v>20.8396646024321</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.52080443738543</v>
+        <v>15.12692621473957</v>
       </c>
       <c r="C18">
-        <v>17.72648864773427</v>
+        <v>7.636504568814074</v>
       </c>
       <c r="D18">
-        <v>3.674272373271199</v>
+        <v>5.237233466618032</v>
       </c>
       <c r="E18">
-        <v>13.41303587347143</v>
+        <v>7.958768372697836</v>
       </c>
       <c r="F18">
-        <v>41.82907015862749</v>
+        <v>27.88161246380475</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.29159551905112</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.10569465868265</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.38641122917516</v>
       </c>
       <c r="M18">
-        <v>21.95609285018491</v>
+        <v>10.5899544996855</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.30781089807075</v>
+        <v>20.84150158827117</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.4020993707013</v>
+        <v>15.06607625068644</v>
       </c>
       <c r="C19">
-        <v>17.6479704216245</v>
+        <v>7.633747887218564</v>
       </c>
       <c r="D19">
-        <v>3.678097297290664</v>
+        <v>5.225139027363139</v>
       </c>
       <c r="E19">
-        <v>13.35603535717204</v>
+        <v>7.958789925366813</v>
       </c>
       <c r="F19">
-        <v>41.65593190925208</v>
+        <v>27.86862956811222</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.295892544780159</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.05886542999277</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.380047121194847</v>
       </c>
       <c r="M19">
-        <v>21.8542441960499</v>
+        <v>10.56502974057161</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.18239136888853</v>
+        <v>20.8423962872738</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.93361114691897</v>
+        <v>15.33995387341227</v>
       </c>
       <c r="C20">
-        <v>17.99965181723417</v>
+        <v>7.646186787267428</v>
       </c>
       <c r="D20">
-        <v>3.661142865089269</v>
+        <v>5.279468832492162</v>
       </c>
       <c r="E20">
-        <v>13.61232983004178</v>
+        <v>7.958893705669342</v>
       </c>
       <c r="F20">
-        <v>42.43419188922053</v>
+        <v>27.92849561827133</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.276620206664973</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.26827935399169</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.408782683504953</v>
       </c>
       <c r="M20">
-        <v>22.31053265722186</v>
+        <v>10.67699424680844</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.74668861723183</v>
+        <v>20.83945509375376</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.67408923741035</v>
+        <v>16.29983969879072</v>
       </c>
       <c r="C21">
-        <v>19.1532164460574</v>
+        <v>7.688577365700929</v>
       </c>
       <c r="D21">
-        <v>3.609152171923505</v>
+        <v>5.460181843758403</v>
       </c>
       <c r="E21">
-        <v>14.5673453967092</v>
+        <v>7.962804951541501</v>
       </c>
       <c r="F21">
-        <v>45.03503497969569</v>
+        <v>28.15537288237398</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.212981557292532</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.94876721878694</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.506977938086243</v>
       </c>
       <c r="M21">
-        <v>23.809312329211</v>
+        <v>11.049410351422</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.64183422971949</v>
+        <v>20.84911252455351</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.77973263669952</v>
+        <v>16.90135630493952</v>
       </c>
       <c r="C22">
-        <v>19.8875724466916</v>
+        <v>7.716741581572044</v>
       </c>
       <c r="D22">
-        <v>3.579501075517613</v>
+        <v>5.576769170706044</v>
       </c>
       <c r="E22">
-        <v>15.20973716008548</v>
+        <v>7.968076509346485</v>
       </c>
       <c r="F22">
-        <v>46.7698266684035</v>
+        <v>28.32343633761008</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.172195958015951</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.37633830014882</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.572335853955377</v>
       </c>
       <c r="M22">
-        <v>24.76520317896317</v>
+        <v>11.28968708671763</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.88142194818247</v>
+        <v>20.87066264931507</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.19241291976027</v>
+        <v>16.58266110790794</v>
       </c>
       <c r="C23">
-        <v>19.49733060884456</v>
+        <v>7.701666798754752</v>
       </c>
       <c r="D23">
-        <v>3.594886492402582</v>
+        <v>5.514692785003124</v>
       </c>
       <c r="E23">
-        <v>14.8677533647993</v>
+        <v>7.965010627593286</v>
       </c>
       <c r="F23">
-        <v>45.824367887264</v>
+        <v>28.23188897116695</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.193891842207902</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.14970156182688</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.537347924237917</v>
       </c>
       <c r="M23">
-        <v>24.25705829183446</v>
+        <v>11.16175082004988</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.21961386236958</v>
+        <v>20.85772281484886</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.90459816494909</v>
+        <v>15.32382524767166</v>
       </c>
       <c r="C24">
-        <v>17.98044775548022</v>
+        <v>7.645501488020144</v>
       </c>
       <c r="D24">
-        <v>3.662056636431528</v>
+        <v>5.276491750597093</v>
       </c>
       <c r="E24">
-        <v>13.59826907006247</v>
+        <v>7.958874755730627</v>
       </c>
       <c r="F24">
-        <v>42.39151078105239</v>
+        <v>27.9251128070065</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.277674301135011</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.25686641238879</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.407198345530817</v>
       </c>
       <c r="M24">
-        <v>22.28560896583505</v>
+        <v>10.67085903041924</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.71570641840086</v>
+        <v>20.83954480480726</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.28811614885932</v>
+        <v>13.9791789544929</v>
       </c>
       <c r="C25">
-        <v>16.25207699980761</v>
+        <v>7.586803041607883</v>
       </c>
       <c r="D25">
-        <v>3.749337192555636</v>
+        <v>5.014094631615458</v>
       </c>
       <c r="E25">
-        <v>12.36486327348761</v>
+        <v>7.963526968383093</v>
       </c>
       <c r="F25">
-        <v>38.64097782066003</v>
+        <v>27.67518501154833</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.371661967208264</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.21978048873111</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.272185895884551</v>
       </c>
       <c r="M25">
-        <v>20.04580497809307</v>
+        <v>10.13006714968596</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.01024814580722</v>
+        <v>20.88101613898814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.9149083119896</v>
+        <v>14.09990611807518</v>
       </c>
       <c r="C2">
-        <v>7.545109923437298</v>
+        <v>9.284315311862509</v>
       </c>
       <c r="D2">
-        <v>4.817508608328603</v>
+        <v>7.61776766466959</v>
       </c>
       <c r="E2">
-        <v>7.976221163114134</v>
+        <v>13.40717858641336</v>
       </c>
       <c r="F2">
-        <v>27.55616042640758</v>
+        <v>41.27186205150668</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.444149782021798</v>
+        <v>10.75331571494002</v>
       </c>
       <c r="K2">
-        <v>10.39236836798189</v>
+        <v>10.32231581683892</v>
       </c>
       <c r="L2">
-        <v>6.177705931994567</v>
+        <v>10.64535173952681</v>
       </c>
       <c r="M2">
-        <v>9.724795262755489</v>
+        <v>15.40973373311131</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.95938645654791</v>
+        <v>32.0521862894204</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14858397635167</v>
+        <v>13.93806356262052</v>
       </c>
       <c r="C3">
-        <v>7.517766199880775</v>
+        <v>9.274518568658557</v>
       </c>
       <c r="D3">
-        <v>4.682944873003382</v>
+        <v>7.609107581246826</v>
       </c>
       <c r="E3">
-        <v>7.990396661712554</v>
+        <v>13.43124580468601</v>
       </c>
       <c r="F3">
-        <v>27.51358825111737</v>
+        <v>41.36873766526165</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.495408469663295</v>
+        <v>10.77206884555236</v>
       </c>
       <c r="K3">
-        <v>9.792004981492584</v>
+        <v>10.19932314820355</v>
       </c>
       <c r="L3">
-        <v>6.116901434153323</v>
+        <v>10.65313307650609</v>
       </c>
       <c r="M3">
-        <v>9.447280172653935</v>
+        <v>15.39178170252963</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.0400514425601</v>
+        <v>32.14194491663513</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.65655149655432</v>
+        <v>13.8402646854957</v>
       </c>
       <c r="C4">
-        <v>7.501415791604908</v>
+        <v>9.268593908434877</v>
       </c>
       <c r="D4">
-        <v>4.599954652562571</v>
+        <v>7.604719147378981</v>
       </c>
       <c r="E4">
-        <v>8.001780789045558</v>
+        <v>13.44733193144042</v>
       </c>
       <c r="F4">
-        <v>27.50539329672295</v>
+        <v>41.43546384143664</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.52795997985338</v>
+        <v>10.7842109304918</v>
       </c>
       <c r="K4">
-        <v>9.40400197757541</v>
+        <v>10.12468246242002</v>
       </c>
       <c r="L4">
-        <v>6.081205809567302</v>
+        <v>10.65895800180019</v>
       </c>
       <c r="M4">
-        <v>9.276066023477636</v>
+        <v>15.382666548072</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.10243456137474</v>
+        <v>32.20221243681267</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.45077954746516</v>
+        <v>13.80084981782983</v>
       </c>
       <c r="C5">
-        <v>7.494861851021901</v>
+        <v>9.266202898748881</v>
       </c>
       <c r="D5">
-        <v>4.566090179977038</v>
+        <v>7.603166032683142</v>
       </c>
       <c r="E5">
-        <v>8.007083920413628</v>
+        <v>13.45421679950673</v>
       </c>
       <c r="F5">
-        <v>27.50643843882558</v>
+        <v>41.46447546065713</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.541499844161075</v>
+        <v>10.78931718096721</v>
       </c>
       <c r="K5">
-        <v>9.241054310084984</v>
+        <v>10.09451901819092</v>
       </c>
       <c r="L5">
-        <v>6.067078531192889</v>
+        <v>10.66159567621972</v>
       </c>
       <c r="M5">
-        <v>9.20618508484085</v>
+        <v>15.3794350171856</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.13098190515007</v>
+        <v>32.22806769325163</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.41629818824949</v>
+        <v>13.79433277544058</v>
       </c>
       <c r="C6">
-        <v>7.49378011968939</v>
+        <v>9.265807299251344</v>
       </c>
       <c r="D6">
-        <v>4.560465699716899</v>
+        <v>7.602922390663476</v>
       </c>
       <c r="E6">
-        <v>8.008004315495208</v>
+        <v>13.45537995194554</v>
       </c>
       <c r="F6">
-        <v>27.50687302593107</v>
+        <v>41.46940270549479</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.543764834578276</v>
+        <v>10.79017464098473</v>
       </c>
       <c r="K6">
-        <v>9.213706486700236</v>
+        <v>10.08952664268669</v>
       </c>
       <c r="L6">
-        <v>6.064758202535837</v>
+        <v>10.66204962179672</v>
       </c>
       <c r="M6">
-        <v>9.194577688703307</v>
+        <v>15.37892768666654</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.13590788816861</v>
+        <v>32.23243918072318</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65379748538483</v>
+        <v>13.83973128864623</v>
       </c>
       <c r="C7">
-        <v>7.501326963280013</v>
+        <v>9.26856156721049</v>
       </c>
       <c r="D7">
-        <v>4.59949806371884</v>
+        <v>7.604697247102187</v>
       </c>
       <c r="E7">
-        <v>8.001849633500612</v>
+        <v>13.44742344775384</v>
       </c>
       <c r="F7">
-        <v>27.50538980900646</v>
+        <v>41.43584773457064</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.528141465511994</v>
+        <v>10.78427915382818</v>
       </c>
       <c r="K7">
-        <v>9.401823915876438</v>
+        <v>10.12427459946072</v>
       </c>
       <c r="L7">
-        <v>6.081013579026892</v>
+        <v>10.65899250474659</v>
       </c>
       <c r="M7">
-        <v>9.275123898322416</v>
+        <v>15.38262100677428</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.1028070438611</v>
+        <v>32.20255588423225</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.65521862853503</v>
+        <v>14.04380254746264</v>
       </c>
       <c r="C8">
-        <v>7.535589885881013</v>
+        <v>9.280918929961187</v>
       </c>
       <c r="D8">
-        <v>4.771214803784321</v>
+        <v>7.614589884316723</v>
       </c>
       <c r="E8">
-        <v>7.980546542381712</v>
+        <v>13.41520565839569</v>
       </c>
       <c r="F8">
-        <v>27.5376811602027</v>
+        <v>41.30376042302009</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.461602188526465</v>
+        <v>10.75965180429119</v>
       </c>
       <c r="K8">
-        <v>10.18940418666191</v>
+        <v>10.27974553617622</v>
       </c>
       <c r="L8">
-        <v>6.156404800939619</v>
+        <v>10.64781780792291</v>
       </c>
       <c r="M8">
-        <v>9.629333926312361</v>
+        <v>15.40315003391662</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.98446682093436</v>
+        <v>32.08206471924887</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.44371119056729</v>
+        <v>14.45453372779277</v>
       </c>
       <c r="C9">
-        <v>7.606332800977772</v>
+        <v>9.305846646431169</v>
       </c>
       <c r="D9">
-        <v>5.10310424439442</v>
+        <v>7.641284395394727</v>
       </c>
       <c r="E9">
-        <v>7.960491935560551</v>
+        <v>13.36238698546819</v>
       </c>
       <c r="F9">
-        <v>27.74895903302832</v>
+        <v>41.10227605411347</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.33950322067991</v>
+        <v>10.71631714592678</v>
       </c>
       <c r="K9">
-        <v>11.57904103055585</v>
+        <v>10.59013934373009</v>
       </c>
       <c r="L9">
-        <v>6.316919952573177</v>
+        <v>10.63418378008816</v>
       </c>
       <c r="M9">
-        <v>10.31352565632612</v>
+        <v>15.45838868697597</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.8593059490195</v>
+        <v>31.88671340466224</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.67426714950537</v>
+        <v>14.76012070387167</v>
       </c>
       <c r="C10">
-        <v>7.660592858375395</v>
+        <v>9.324554116184418</v>
       </c>
       <c r="D10">
-        <v>5.341629706795701</v>
+        <v>7.665237897009596</v>
       </c>
       <c r="E10">
-        <v>7.959633053985406</v>
+        <v>13.32986429234046</v>
       </c>
       <c r="F10">
-        <v>28.00179520685038</v>
+        <v>40.98939564755577</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.254657804055467</v>
+        <v>10.68747441878231</v>
       </c>
       <c r="K10">
-        <v>12.50500903904412</v>
+        <v>10.81961124016486</v>
       </c>
       <c r="L10">
-        <v>6.442115453898786</v>
+        <v>10.62917447272121</v>
       </c>
       <c r="M10">
-        <v>10.80509575874028</v>
+        <v>15.50788840347538</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.83944781558612</v>
+        <v>31.7681757178458</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.23915118818566</v>
+        <v>14.89941877386205</v>
       </c>
       <c r="C11">
-        <v>7.685804039779355</v>
+        <v>9.333143451776484</v>
       </c>
       <c r="D11">
-        <v>5.448557326858119</v>
+        <v>7.677052779329159</v>
       </c>
       <c r="E11">
-        <v>7.9623945036962</v>
+        <v>13.31642617573411</v>
       </c>
       <c r="F11">
-        <v>28.13953075263331</v>
+        <v>40.94568764511426</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.217057769299981</v>
+        <v>10.6749975167232</v>
       </c>
       <c r="K11">
-        <v>12.90567461553145</v>
+        <v>10.92390706306736</v>
       </c>
       <c r="L11">
-        <v>6.500545197093698</v>
+        <v>10.62797391394296</v>
       </c>
       <c r="M11">
-        <v>11.02545398056414</v>
+        <v>15.53229230729208</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.84761270136254</v>
+        <v>31.71968200161801</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.4486257203103</v>
+        <v>14.9521628633672</v>
       </c>
       <c r="C12">
-        <v>7.695429551264652</v>
+        <v>9.336406806537861</v>
       </c>
       <c r="D12">
-        <v>5.488789945912694</v>
+        <v>7.681656525692632</v>
       </c>
       <c r="E12">
-        <v>7.963905101591365</v>
+        <v>13.31153201829332</v>
       </c>
       <c r="F12">
-        <v>28.19507372595707</v>
+        <v>40.93023602211944</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.202958115131783</v>
+        <v>10.67036496592567</v>
       </c>
       <c r="K12">
-        <v>13.05445126011004</v>
+        <v>10.96335462651937</v>
       </c>
       <c r="L12">
-        <v>6.522874691511641</v>
+        <v>10.62767350664583</v>
       </c>
       <c r="M12">
-        <v>11.108367821646</v>
+        <v>15.54179996203021</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.85330820643071</v>
+        <v>31.70209996649013</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.40370803622451</v>
+        <v>14.94080442905302</v>
       </c>
       <c r="C13">
-        <v>7.693352984289158</v>
+        <v>9.335703516259377</v>
       </c>
       <c r="D13">
-        <v>5.480137093638246</v>
+        <v>7.680659296254409</v>
       </c>
       <c r="E13">
-        <v>7.963558903466388</v>
+        <v>13.31257741756654</v>
       </c>
       <c r="F13">
-        <v>28.18295912936326</v>
+        <v>40.93351488894617</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.205988636887878</v>
+        <v>10.67135857511282</v>
       </c>
       <c r="K13">
-        <v>13.02254038195596</v>
+        <v>10.95486150750071</v>
       </c>
       <c r="L13">
-        <v>6.518056730618977</v>
+        <v>10.62773135935208</v>
       </c>
       <c r="M13">
-        <v>11.09053537020425</v>
+        <v>15.53974054803945</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.85196367328787</v>
+        <v>31.70585180515844</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.25647336439081</v>
+        <v>14.90375842401244</v>
       </c>
       <c r="C14">
-        <v>7.686594345077995</v>
+        <v>9.3334117179275</v>
       </c>
       <c r="D14">
-        <v>5.451872637920726</v>
+        <v>7.67742894660041</v>
       </c>
       <c r="E14">
-        <v>7.96250939691063</v>
+        <v>13.31601963403896</v>
       </c>
       <c r="F14">
-        <v>28.14403178870387</v>
+        <v>40.94439438871535</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.215895030543115</v>
+        <v>10.67461454878848</v>
       </c>
       <c r="K14">
-        <v>12.91797353792693</v>
+        <v>10.92715357042469</v>
       </c>
       <c r="L14">
-        <v>6.502378232509407</v>
+        <v>10.62794611334273</v>
       </c>
       <c r="M14">
-        <v>11.03228632430563</v>
+        <v>15.53306919653305</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.84802833606917</v>
+        <v>31.7182198511262</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16571188459894</v>
+        <v>14.88106466467552</v>
       </c>
       <c r="C15">
-        <v>7.682464801775923</v>
+        <v>9.332009307701473</v>
       </c>
       <c r="D15">
-        <v>5.434525298724719</v>
+        <v>7.675467084426957</v>
       </c>
       <c r="E15">
-        <v>7.961927435815547</v>
+        <v>13.31815341383838</v>
       </c>
       <c r="F15">
-        <v>28.12063202292012</v>
+        <v>40.95120162154924</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.221980899602024</v>
+        <v>10.67662091969794</v>
       </c>
       <c r="K15">
-        <v>12.85353997547218</v>
+        <v>10.91017454924671</v>
       </c>
       <c r="L15">
-        <v>6.492800924725602</v>
+        <v>10.62809771503527</v>
       </c>
       <c r="M15">
-        <v>10.99653622809842</v>
+        <v>15.52901735109188</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.84596081857117</v>
+        <v>31.7258974283116</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.63672723832943</v>
+        <v>14.75101902675267</v>
       </c>
       <c r="C16">
-        <v>7.658956093158182</v>
+        <v>9.323994323059425</v>
       </c>
       <c r="D16">
-        <v>5.334607187926429</v>
+        <v>7.664484047383713</v>
       </c>
       <c r="E16">
-        <v>7.959517004592528</v>
+        <v>13.33076975967133</v>
       </c>
       <c r="F16">
-        <v>27.99326124099955</v>
+        <v>40.99240591250368</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.257134715840309</v>
+        <v>10.68830273459673</v>
       </c>
       <c r="K16">
-        <v>12.47841156856417</v>
+        <v>10.81279050682954</v>
       </c>
       <c r="L16">
-        <v>6.438325888562191</v>
+        <v>10.62927455842428</v>
       </c>
       <c r="M16">
-        <v>10.79062373659911</v>
+        <v>15.50633110047452</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.83927139436909</v>
+        <v>31.77145421659274</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.30547395843417</v>
+        <v>14.6712802142855</v>
       </c>
       <c r="C17">
-        <v>7.644671288983028</v>
+        <v>9.319097230760308</v>
       </c>
       <c r="D17">
-        <v>5.27288270726385</v>
+        <v>7.657979876772974</v>
       </c>
       <c r="E17">
-        <v>7.958853826408473</v>
+        <v>13.33885657781288</v>
       </c>
       <c r="F17">
-        <v>27.92102771408265</v>
+        <v>41.01964129121961</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.278952446382377</v>
+        <v>10.69563375890387</v>
       </c>
       <c r="K17">
-        <v>12.24302130373307</v>
+        <v>10.75300071237331</v>
       </c>
       <c r="L17">
-        <v>6.405279190544047</v>
+        <v>10.63027209027342</v>
       </c>
       <c r="M17">
-        <v>10.66342145271462</v>
+        <v>15.49289357644832</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.8396646024321</v>
+        <v>31.80079301923265</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.12692621473957</v>
+        <v>14.62544609525603</v>
       </c>
       <c r="C18">
-        <v>7.636504568814074</v>
+        <v>9.316288046841406</v>
       </c>
       <c r="D18">
-        <v>5.237233466618032</v>
+        <v>7.654325433080077</v>
       </c>
       <c r="E18">
-        <v>7.958768372697836</v>
+        <v>13.34363562433625</v>
       </c>
       <c r="F18">
-        <v>27.88161246380475</v>
+        <v>41.03602561859221</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.29159551905112</v>
+        <v>10.69991099106664</v>
       </c>
       <c r="K18">
-        <v>12.10569465868265</v>
+        <v>10.71860451304386</v>
       </c>
       <c r="L18">
-        <v>6.38641122917516</v>
+        <v>10.63094738110652</v>
       </c>
       <c r="M18">
-        <v>10.5899544996855</v>
+        <v>15.48534251140232</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.84150158827117</v>
+        <v>31.81817895069599</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.06607625068644</v>
+        <v>14.60993393993664</v>
       </c>
       <c r="C19">
-        <v>7.633747887218564</v>
+        <v>9.315338211688355</v>
       </c>
       <c r="D19">
-        <v>5.225139027363139</v>
+        <v>7.65310304172811</v>
       </c>
       <c r="E19">
-        <v>7.958789925366813</v>
+        <v>13.3452756794338</v>
       </c>
       <c r="F19">
-        <v>27.86862956811222</v>
+        <v>41.0416965764795</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.295892544780159</v>
+        <v>10.70136961221685</v>
       </c>
       <c r="K19">
-        <v>12.05886542999277</v>
+        <v>10.70695844252211</v>
       </c>
       <c r="L19">
-        <v>6.380047121194847</v>
+        <v>10.63119348662502</v>
       </c>
       <c r="M19">
-        <v>10.56502974057161</v>
+        <v>15.48281653831867</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.8423962872738</v>
+        <v>31.82415327555136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.33995387341227</v>
+        <v>14.67976582634845</v>
       </c>
       <c r="C20">
-        <v>7.646186787267428</v>
+        <v>9.31961776354602</v>
       </c>
       <c r="D20">
-        <v>5.279468832492162</v>
+        <v>7.658663312465537</v>
       </c>
       <c r="E20">
-        <v>7.958893705669342</v>
+        <v>13.33798250711656</v>
       </c>
       <c r="F20">
-        <v>27.92849561827133</v>
+        <v>41.01666759188183</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.276620206664973</v>
+        <v>10.69484708769959</v>
       </c>
       <c r="K20">
-        <v>12.26827935399169</v>
+        <v>10.75936637748406</v>
       </c>
       <c r="L20">
-        <v>6.408782683504953</v>
+        <v>10.63015539849032</v>
       </c>
       <c r="M20">
-        <v>10.67699424680844</v>
+        <v>15.49430565186439</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.83945509375376</v>
+        <v>31.79761695880686</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.29983969879072</v>
+        <v>14.91464023381177</v>
       </c>
       <c r="C21">
-        <v>7.688577365700929</v>
+        <v>9.334084587687832</v>
       </c>
       <c r="D21">
-        <v>5.460181843758403</v>
+        <v>7.678374277602529</v>
       </c>
       <c r="E21">
-        <v>7.962804951541501</v>
+        <v>13.31500329529573</v>
       </c>
       <c r="F21">
-        <v>28.15537288237398</v>
+        <v>40.94116896692339</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.212981557292532</v>
+        <v>10.67365569176192</v>
       </c>
       <c r="K21">
-        <v>12.94876721878694</v>
+        <v>10.935293603971</v>
       </c>
       <c r="L21">
-        <v>6.506977938086243</v>
+        <v>10.6278788562037</v>
       </c>
       <c r="M21">
-        <v>11.049410351422</v>
+        <v>15.53502154289195</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.84911252455351</v>
+        <v>31.71456584171189</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.90135630493952</v>
+        <v>15.06809401538746</v>
       </c>
       <c r="C22">
-        <v>7.716741581572044</v>
+        <v>9.343601913521164</v>
       </c>
       <c r="D22">
-        <v>5.576769170706044</v>
+        <v>7.69201140258759</v>
       </c>
       <c r="E22">
-        <v>7.968076509346485</v>
+        <v>13.30111888647863</v>
       </c>
       <c r="F22">
-        <v>28.32343633761008</v>
+        <v>40.89823602388608</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.172195958015951</v>
+        <v>10.66034301097957</v>
       </c>
       <c r="K22">
-        <v>13.37633830014882</v>
+        <v>11.04998317785384</v>
       </c>
       <c r="L22">
-        <v>6.572335853955377</v>
+        <v>10.62728949857715</v>
       </c>
       <c r="M22">
-        <v>11.28968708671763</v>
+        <v>15.56318228160478</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.87066264931507</v>
+        <v>31.66484249653331</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.58266110790794</v>
+        <v>14.98621241412572</v>
       </c>
       <c r="C23">
-        <v>7.701666798754752</v>
+        <v>9.338516835961585</v>
       </c>
       <c r="D23">
-        <v>5.514692785003124</v>
+        <v>7.684664743372369</v>
       </c>
       <c r="E23">
-        <v>7.965010627593286</v>
+        <v>13.30842568243912</v>
       </c>
       <c r="F23">
-        <v>28.23188897116695</v>
+        <v>40.92056346205297</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.193891842207902</v>
+        <v>10.66739922257523</v>
       </c>
       <c r="K23">
-        <v>13.14970156182688</v>
+        <v>10.98880858575242</v>
       </c>
       <c r="L23">
-        <v>6.537347924237917</v>
+        <v>10.62752211930937</v>
       </c>
       <c r="M23">
-        <v>11.16175082004988</v>
+        <v>15.54801213560904</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.85772281484886</v>
+        <v>31.6909637499907</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.32382524767166</v>
+        <v>14.67592945024586</v>
       </c>
       <c r="C24">
-        <v>7.645501488020144</v>
+        <v>9.319382411255289</v>
       </c>
       <c r="D24">
-        <v>5.276491750597093</v>
+        <v>7.658354066600287</v>
       </c>
       <c r="E24">
-        <v>7.958874755730627</v>
+        <v>13.33837727004677</v>
       </c>
       <c r="F24">
-        <v>27.9251128070065</v>
+        <v>41.01800973888056</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.277674301135011</v>
+        <v>10.69520254694839</v>
       </c>
       <c r="K24">
-        <v>12.25686641238879</v>
+        <v>10.75648852701019</v>
       </c>
       <c r="L24">
-        <v>6.407198345530817</v>
+        <v>10.63020783770178</v>
       </c>
       <c r="M24">
-        <v>10.67085903041924</v>
+        <v>15.49366670913713</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.83954480480726</v>
+        <v>31.79905124015711</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.9791789544929</v>
+        <v>14.34256008490477</v>
       </c>
       <c r="C25">
-        <v>7.586803041607883</v>
+        <v>9.299031775170265</v>
       </c>
       <c r="D25">
-        <v>5.014094631615458</v>
+        <v>7.633292361058448</v>
       </c>
       <c r="E25">
-        <v>7.963526968383093</v>
+        <v>13.3755700567412</v>
       </c>
       <c r="F25">
-        <v>27.67518501154833</v>
+        <v>41.1506146365518</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.371661967208264</v>
+        <v>10.72751229928241</v>
       </c>
       <c r="K25">
-        <v>11.21978048873111</v>
+        <v>10.50577972462734</v>
       </c>
       <c r="L25">
-        <v>6.272185895884551</v>
+        <v>10.63698974796024</v>
       </c>
       <c r="M25">
-        <v>10.13006714968596</v>
+        <v>15.44186281151314</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.88101613898814</v>
+        <v>31.93517540902371</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.09990611807518</v>
+        <v>12.91490831198958</v>
       </c>
       <c r="C2">
-        <v>9.284315311862509</v>
+        <v>7.54510992343729</v>
       </c>
       <c r="D2">
-        <v>7.61776766466959</v>
+        <v>4.817508608328582</v>
       </c>
       <c r="E2">
-        <v>13.40717858641336</v>
+        <v>7.97622116311407</v>
       </c>
       <c r="F2">
-        <v>41.27186205150668</v>
+        <v>27.55616042640738</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.75331571494002</v>
+        <v>6.444149782021732</v>
       </c>
       <c r="K2">
-        <v>10.32231581683892</v>
+        <v>10.39236836798194</v>
       </c>
       <c r="L2">
-        <v>10.64535173952681</v>
+        <v>6.177705931994481</v>
       </c>
       <c r="M2">
-        <v>15.40973373311131</v>
+        <v>9.724795262755428</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>32.0521862894204</v>
+        <v>20.95938645654772</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.93806356262052</v>
+        <v>12.14858397635173</v>
       </c>
       <c r="C3">
-        <v>9.274518568658557</v>
+        <v>7.517766199881291</v>
       </c>
       <c r="D3">
-        <v>7.609107581246826</v>
+        <v>4.682944873003427</v>
       </c>
       <c r="E3">
-        <v>13.43124580468601</v>
+        <v>7.990396661712558</v>
       </c>
       <c r="F3">
-        <v>41.36873766526165</v>
+        <v>27.5135882511176</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.77206884555236</v>
+        <v>6.495408469663362</v>
       </c>
       <c r="K3">
-        <v>10.19932314820355</v>
+        <v>9.792004981492571</v>
       </c>
       <c r="L3">
-        <v>10.65313307650609</v>
+        <v>6.116901434153299</v>
       </c>
       <c r="M3">
-        <v>15.39178170252963</v>
+        <v>9.447280172653954</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>32.14194491663513</v>
+        <v>21.04005144256026</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.8402646854957</v>
+        <v>11.6565514965543</v>
       </c>
       <c r="C4">
-        <v>9.268593908434877</v>
+        <v>7.501415791604894</v>
       </c>
       <c r="D4">
-        <v>7.604719147378981</v>
+        <v>4.599954652562665</v>
       </c>
       <c r="E4">
-        <v>13.44733193144042</v>
+        <v>8.001780789045556</v>
       </c>
       <c r="F4">
-        <v>41.43546384143664</v>
+        <v>27.50539329672295</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.7842109304918</v>
+        <v>6.527959979853348</v>
       </c>
       <c r="K4">
-        <v>10.12468246242002</v>
+        <v>9.404001977575453</v>
       </c>
       <c r="L4">
-        <v>10.65895800180019</v>
+        <v>6.081205809567296</v>
       </c>
       <c r="M4">
-        <v>15.382666548072</v>
+        <v>9.276066023477608</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>32.20221243681267</v>
+        <v>21.10243456137469</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.80084981782983</v>
+        <v>11.45077954746521</v>
       </c>
       <c r="C5">
-        <v>9.266202898748881</v>
+        <v>7.494861851022426</v>
       </c>
       <c r="D5">
-        <v>7.603166032683142</v>
+        <v>4.566090179977184</v>
       </c>
       <c r="E5">
-        <v>13.45421679950673</v>
+        <v>8.007083920413873</v>
       </c>
       <c r="F5">
-        <v>41.46447546065713</v>
+        <v>27.50643843882583</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.78931718096721</v>
+        <v>6.54149984416114</v>
       </c>
       <c r="K5">
-        <v>10.09451901819092</v>
+        <v>9.241054310085014</v>
       </c>
       <c r="L5">
-        <v>10.66159567621972</v>
+        <v>6.067078531192887</v>
       </c>
       <c r="M5">
-        <v>15.3794350171856</v>
+        <v>9.206185084840939</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>32.22806769325163</v>
+        <v>21.13098190515023</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.79433277544058</v>
+        <v>11.4162981882495</v>
       </c>
       <c r="C6">
-        <v>9.265807299251344</v>
+        <v>7.49378011968939</v>
       </c>
       <c r="D6">
-        <v>7.602922390663476</v>
+        <v>4.560465699716996</v>
       </c>
       <c r="E6">
-        <v>13.45537995194554</v>
+        <v>8.008004315495331</v>
       </c>
       <c r="F6">
-        <v>41.46940270549479</v>
+        <v>27.50687302593119</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.79017464098473</v>
+        <v>6.543764834578342</v>
       </c>
       <c r="K6">
-        <v>10.08952664268669</v>
+        <v>9.2137064867002</v>
       </c>
       <c r="L6">
-        <v>10.66204962179672</v>
+        <v>6.064758202535925</v>
       </c>
       <c r="M6">
-        <v>15.37892768666654</v>
+        <v>9.194577688703378</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>32.23243918072318</v>
+        <v>21.13590788816865</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.83973128864623</v>
+        <v>11.65379748538482</v>
       </c>
       <c r="C7">
-        <v>9.26856156721049</v>
+        <v>7.501326963280023</v>
       </c>
       <c r="D7">
-        <v>7.604697247102187</v>
+        <v>4.599498063718924</v>
       </c>
       <c r="E7">
-        <v>13.44742344775384</v>
+        <v>8.001849633500672</v>
       </c>
       <c r="F7">
-        <v>41.43584773457064</v>
+        <v>27.50538980900644</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.78427915382818</v>
+        <v>6.528141465511996</v>
       </c>
       <c r="K7">
-        <v>10.12427459946072</v>
+        <v>9.401823915876422</v>
       </c>
       <c r="L7">
-        <v>10.65899250474659</v>
+        <v>6.081013579026922</v>
       </c>
       <c r="M7">
-        <v>15.38262100677428</v>
+        <v>9.275123898322455</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>32.20255588423225</v>
+        <v>21.10280704386105</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.04380254746264</v>
+        <v>12.65521862853505</v>
       </c>
       <c r="C8">
-        <v>9.280918929961187</v>
+        <v>7.535589885881408</v>
       </c>
       <c r="D8">
-        <v>7.614589884316723</v>
+        <v>4.771214803784327</v>
       </c>
       <c r="E8">
-        <v>13.41520565839569</v>
+        <v>7.980546542381712</v>
       </c>
       <c r="F8">
-        <v>41.30376042302009</v>
+        <v>27.53768116020251</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.75965180429119</v>
+        <v>6.461602188526401</v>
       </c>
       <c r="K8">
-        <v>10.27974553617622</v>
+        <v>10.18940418666201</v>
       </c>
       <c r="L8">
-        <v>10.64781780792291</v>
+        <v>6.156404800939461</v>
       </c>
       <c r="M8">
-        <v>15.40315003391662</v>
+        <v>9.629333926312309</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>32.08206471924887</v>
+        <v>20.98446682093415</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.45453372779277</v>
+        <v>14.44371119056729</v>
       </c>
       <c r="C9">
-        <v>9.305846646431169</v>
+        <v>7.606332800977633</v>
       </c>
       <c r="D9">
-        <v>7.641284395394727</v>
+        <v>5.103104244394376</v>
       </c>
       <c r="E9">
-        <v>13.36238698546819</v>
+        <v>7.960491935560496</v>
       </c>
       <c r="F9">
-        <v>41.10227605411347</v>
+        <v>27.74895903302824</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.71631714592678</v>
+        <v>6.339503220679908</v>
       </c>
       <c r="K9">
-        <v>10.59013934373009</v>
+        <v>11.57904103055586</v>
       </c>
       <c r="L9">
-        <v>10.63418378008816</v>
+        <v>6.316919952573144</v>
       </c>
       <c r="M9">
-        <v>15.45838868697597</v>
+        <v>10.31352565632608</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.88671340466224</v>
+        <v>20.8593059490195</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.76012070387167</v>
+        <v>15.67426714950539</v>
       </c>
       <c r="C10">
-        <v>9.324554116184418</v>
+        <v>7.660592858375395</v>
       </c>
       <c r="D10">
-        <v>7.665237897009596</v>
+        <v>5.34162970679576</v>
       </c>
       <c r="E10">
-        <v>13.32986429234046</v>
+        <v>7.959633053985517</v>
       </c>
       <c r="F10">
-        <v>40.98939564755577</v>
+        <v>28.00179520685031</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.68747441878231</v>
+        <v>6.254657804055467</v>
       </c>
       <c r="K10">
-        <v>10.81961124016486</v>
+        <v>12.50500903904417</v>
       </c>
       <c r="L10">
-        <v>10.62917447272121</v>
+        <v>6.44211545389888</v>
       </c>
       <c r="M10">
-        <v>15.50788840347538</v>
+        <v>10.80509575874031</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>31.7681757178458</v>
+        <v>20.83944781558604</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.89941877386205</v>
+        <v>16.2391511881857</v>
       </c>
       <c r="C11">
-        <v>9.333143451776484</v>
+        <v>7.6858040397791</v>
       </c>
       <c r="D11">
-        <v>7.677052779329159</v>
+        <v>5.448557326858029</v>
       </c>
       <c r="E11">
-        <v>13.31642617573411</v>
+        <v>7.962394503696142</v>
       </c>
       <c r="F11">
-        <v>40.94568764511426</v>
+        <v>28.13953075263307</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.6749975167232</v>
+        <v>6.217057769299976</v>
       </c>
       <c r="K11">
-        <v>10.92390706306736</v>
+        <v>12.90567461553148</v>
       </c>
       <c r="L11">
-        <v>10.62797391394296</v>
+        <v>6.500545197093727</v>
       </c>
       <c r="M11">
-        <v>15.53229230729208</v>
+        <v>11.02545398056412</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>31.71968200161801</v>
+        <v>20.84761270136242</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.9521628633672</v>
+        <v>16.4486257203103</v>
       </c>
       <c r="C12">
-        <v>9.336406806537861</v>
+        <v>7.69542955126478</v>
       </c>
       <c r="D12">
-        <v>7.681656525692632</v>
+        <v>5.488789945912793</v>
       </c>
       <c r="E12">
-        <v>13.31153201829332</v>
+        <v>7.963905101591361</v>
       </c>
       <c r="F12">
-        <v>40.93023602211944</v>
+        <v>28.19507372595709</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.67036496592567</v>
+        <v>6.202958115131687</v>
       </c>
       <c r="K12">
-        <v>10.96335462651937</v>
+        <v>13.05445126011007</v>
       </c>
       <c r="L12">
-        <v>10.62767350664583</v>
+        <v>6.522874691511593</v>
       </c>
       <c r="M12">
-        <v>15.54179996203021</v>
+        <v>11.10836782164598</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>31.70209996649013</v>
+        <v>20.85330820643067</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.94080442905302</v>
+        <v>16.40370803622446</v>
       </c>
       <c r="C13">
-        <v>9.335703516259377</v>
+        <v>7.693352984289388</v>
       </c>
       <c r="D13">
-        <v>7.680659296254409</v>
+        <v>5.480137093638246</v>
       </c>
       <c r="E13">
-        <v>13.31257741756654</v>
+        <v>7.963558903466396</v>
       </c>
       <c r="F13">
-        <v>40.93351488894617</v>
+        <v>28.18295912936349</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.67135857511282</v>
+        <v>6.205988636887782</v>
       </c>
       <c r="K13">
-        <v>10.95486150750071</v>
+        <v>13.02254038195591</v>
       </c>
       <c r="L13">
-        <v>10.62773135935208</v>
+        <v>6.518056730618882</v>
       </c>
       <c r="M13">
-        <v>15.53974054803945</v>
+        <v>11.09053537020426</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>31.70585180515844</v>
+        <v>20.85196367328808</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.90375842401244</v>
+        <v>16.25647336439079</v>
       </c>
       <c r="C14">
-        <v>9.3334117179275</v>
+        <v>7.686594345078134</v>
       </c>
       <c r="D14">
-        <v>7.67742894660041</v>
+        <v>5.451872637920795</v>
       </c>
       <c r="E14">
-        <v>13.31601963403896</v>
+        <v>7.962509396910737</v>
       </c>
       <c r="F14">
-        <v>40.94439438871535</v>
+        <v>28.14403178870387</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.67461454878848</v>
+        <v>6.21589503054318</v>
       </c>
       <c r="K14">
-        <v>10.92715357042469</v>
+        <v>12.91797353792695</v>
       </c>
       <c r="L14">
-        <v>10.62794611334273</v>
+        <v>6.502378232509434</v>
       </c>
       <c r="M14">
-        <v>15.53306919653305</v>
+        <v>11.03228632430564</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>31.7182198511262</v>
+        <v>20.8480283360691</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.88106466467552</v>
+        <v>16.16571188459891</v>
       </c>
       <c r="C15">
-        <v>9.332009307701473</v>
+        <v>7.682464801776195</v>
       </c>
       <c r="D15">
-        <v>7.675467084426957</v>
+        <v>5.434525298724656</v>
       </c>
       <c r="E15">
-        <v>13.31815341383838</v>
+        <v>7.961927435815658</v>
       </c>
       <c r="F15">
-        <v>40.95120162154924</v>
+        <v>28.12063202292009</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.67662091969794</v>
+        <v>6.221980899602187</v>
       </c>
       <c r="K15">
-        <v>10.91017454924671</v>
+        <v>12.85353997547219</v>
       </c>
       <c r="L15">
-        <v>10.62809771503527</v>
+        <v>6.492800924725605</v>
       </c>
       <c r="M15">
-        <v>15.52901735109188</v>
+        <v>10.99653622809842</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>31.7258974283116</v>
+        <v>20.8459608185712</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.75101902675267</v>
+        <v>15.6367272383294</v>
       </c>
       <c r="C16">
-        <v>9.323994323059425</v>
+        <v>7.65895609315817</v>
       </c>
       <c r="D16">
-        <v>7.664484047383713</v>
+        <v>5.334607187926509</v>
       </c>
       <c r="E16">
-        <v>13.33076975967133</v>
+        <v>7.95951700459269</v>
       </c>
       <c r="F16">
-        <v>40.99240591250368</v>
+        <v>27.99326124099967</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.68830273459673</v>
+        <v>6.25713471584047</v>
       </c>
       <c r="K16">
-        <v>10.81279050682954</v>
+        <v>12.47841156856414</v>
       </c>
       <c r="L16">
-        <v>10.62927455842428</v>
+        <v>6.438325888562277</v>
       </c>
       <c r="M16">
-        <v>15.50633110047452</v>
+        <v>10.79062373659917</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>31.77145421659274</v>
+        <v>20.83927139436915</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.6712802142855</v>
+        <v>15.30547395843417</v>
       </c>
       <c r="C17">
-        <v>9.319097230760308</v>
+        <v>7.644671288982884</v>
       </c>
       <c r="D17">
-        <v>7.657979876772974</v>
+        <v>5.272882707263856</v>
       </c>
       <c r="E17">
-        <v>13.33885657781288</v>
+        <v>7.958853826408473</v>
       </c>
       <c r="F17">
-        <v>41.01964129121961</v>
+        <v>27.92102771408276</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.69563375890387</v>
+        <v>6.278952446382342</v>
       </c>
       <c r="K17">
-        <v>10.75300071237331</v>
+        <v>12.24302130373304</v>
       </c>
       <c r="L17">
-        <v>10.63027209027342</v>
+        <v>6.405279190544047</v>
       </c>
       <c r="M17">
-        <v>15.49289357644832</v>
+        <v>10.66342145271464</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.80079301923265</v>
+        <v>20.83966460243215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.62544609525603</v>
+        <v>15.12692621473959</v>
       </c>
       <c r="C18">
-        <v>9.316288046841406</v>
+        <v>7.636504568813937</v>
       </c>
       <c r="D18">
-        <v>7.654325433080077</v>
+        <v>5.237233466618047</v>
       </c>
       <c r="E18">
-        <v>13.34363562433625</v>
+        <v>7.958768372697785</v>
       </c>
       <c r="F18">
-        <v>41.03602561859221</v>
+        <v>27.88161246380497</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.69991099106664</v>
+        <v>6.291595519051087</v>
       </c>
       <c r="K18">
-        <v>10.71860451304386</v>
+        <v>12.1056946586826</v>
       </c>
       <c r="L18">
-        <v>10.63094738110652</v>
+        <v>6.386411229175105</v>
       </c>
       <c r="M18">
-        <v>15.48534251140232</v>
+        <v>10.5899544996855</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>31.81817895069599</v>
+        <v>20.84150158827136</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.60993393993664</v>
+        <v>15.06607625068645</v>
       </c>
       <c r="C19">
-        <v>9.315338211688355</v>
+        <v>7.633747887218949</v>
       </c>
       <c r="D19">
-        <v>7.65310304172811</v>
+        <v>5.225139027363276</v>
       </c>
       <c r="E19">
-        <v>13.3452756794338</v>
+        <v>7.958789925366877</v>
       </c>
       <c r="F19">
-        <v>41.0416965764795</v>
+        <v>27.86862956811217</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.70136961221685</v>
+        <v>6.29589254478013</v>
       </c>
       <c r="K19">
-        <v>10.70695844252211</v>
+        <v>12.05886542999278</v>
       </c>
       <c r="L19">
-        <v>10.63119348662502</v>
+        <v>6.380047121194786</v>
       </c>
       <c r="M19">
-        <v>15.48281653831867</v>
+        <v>10.56502974057164</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.82415327555136</v>
+        <v>20.84239628727367</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.67976582634845</v>
+        <v>15.33995387341228</v>
       </c>
       <c r="C20">
-        <v>9.31961776354602</v>
+        <v>7.646186787267172</v>
       </c>
       <c r="D20">
-        <v>7.658663312465537</v>
+        <v>5.279468832492127</v>
       </c>
       <c r="E20">
-        <v>13.33798250711656</v>
+        <v>7.958893705669294</v>
       </c>
       <c r="F20">
-        <v>41.01666759188183</v>
+        <v>27.92849561827138</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.69484708769959</v>
+        <v>6.276620206664943</v>
       </c>
       <c r="K20">
-        <v>10.75936637748406</v>
+        <v>12.2682793539917</v>
       </c>
       <c r="L20">
-        <v>10.63015539849032</v>
+        <v>6.408782683504953</v>
       </c>
       <c r="M20">
-        <v>15.49430565186439</v>
+        <v>10.67699424680842</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.79761695880686</v>
+        <v>20.83945509375381</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.91464023381177</v>
+        <v>16.29983969879073</v>
       </c>
       <c r="C21">
-        <v>9.334084587687832</v>
+        <v>7.68857736570067</v>
       </c>
       <c r="D21">
-        <v>7.678374277602529</v>
+        <v>5.460181843758403</v>
       </c>
       <c r="E21">
-        <v>13.31500329529573</v>
+        <v>7.962804951541498</v>
       </c>
       <c r="F21">
-        <v>40.94116896692339</v>
+        <v>28.15537288237386</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.67365569176192</v>
+        <v>6.212981557292532</v>
       </c>
       <c r="K21">
-        <v>10.935293603971</v>
+        <v>12.94876721878692</v>
       </c>
       <c r="L21">
-        <v>10.6278788562037</v>
+        <v>6.506977938086274</v>
       </c>
       <c r="M21">
-        <v>15.53502154289195</v>
+        <v>11.04941035142199</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>31.71456584171189</v>
+        <v>20.84911252455339</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.06809401538746</v>
+        <v>16.9013563049395</v>
       </c>
       <c r="C22">
-        <v>9.343601913521164</v>
+        <v>7.716741581572039</v>
       </c>
       <c r="D22">
-        <v>7.69201140258759</v>
+        <v>5.576769170706071</v>
       </c>
       <c r="E22">
-        <v>13.30111888647863</v>
+        <v>7.968076509346416</v>
       </c>
       <c r="F22">
-        <v>40.89823602388608</v>
+        <v>28.32343633761002</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.66034301097957</v>
+        <v>6.172195958015912</v>
       </c>
       <c r="K22">
-        <v>11.04998317785384</v>
+        <v>13.37633830014882</v>
       </c>
       <c r="L22">
-        <v>10.62728949857715</v>
+        <v>6.572335853955362</v>
       </c>
       <c r="M22">
-        <v>15.56318228160478</v>
+        <v>11.28968708671761</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>31.66484249653331</v>
+        <v>20.87066264931502</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.98621241412572</v>
+        <v>16.58266110790795</v>
       </c>
       <c r="C23">
-        <v>9.338516835961585</v>
+        <v>7.701666798754368</v>
       </c>
       <c r="D23">
-        <v>7.684664743372369</v>
+        <v>5.514692785003157</v>
       </c>
       <c r="E23">
-        <v>13.30842568243912</v>
+        <v>7.96501062759318</v>
       </c>
       <c r="F23">
-        <v>40.92056346205297</v>
+        <v>28.23188897116688</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.66739922257523</v>
+        <v>6.193891842207776</v>
       </c>
       <c r="K23">
-        <v>10.98880858575242</v>
+        <v>13.14970156182684</v>
       </c>
       <c r="L23">
-        <v>10.62752211930937</v>
+        <v>6.537347924237967</v>
       </c>
       <c r="M23">
-        <v>15.54801213560904</v>
+        <v>11.16175082004987</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>31.6909637499907</v>
+        <v>20.85772281484878</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.67592945024586</v>
+        <v>15.32382524767164</v>
       </c>
       <c r="C24">
-        <v>9.319382411255289</v>
+        <v>7.645501488020017</v>
       </c>
       <c r="D24">
-        <v>7.658354066600287</v>
+        <v>5.276491750597106</v>
       </c>
       <c r="E24">
-        <v>13.33837727004677</v>
+        <v>7.958874755730573</v>
       </c>
       <c r="F24">
-        <v>41.01800973888056</v>
+        <v>27.92511280700653</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.69520254694839</v>
+        <v>6.277674301134979</v>
       </c>
       <c r="K24">
-        <v>10.75648852701019</v>
+        <v>12.25686641238875</v>
       </c>
       <c r="L24">
-        <v>10.63020783770178</v>
+        <v>6.407198345530777</v>
       </c>
       <c r="M24">
-        <v>15.49366670913713</v>
+        <v>10.67085903041925</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.79905124015711</v>
+        <v>20.8395448048073</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.34256008490477</v>
+        <v>13.97917895449291</v>
       </c>
       <c r="C25">
-        <v>9.299031775170265</v>
+        <v>7.586803041608142</v>
       </c>
       <c r="D25">
-        <v>7.633292361058448</v>
+        <v>5.014094631615486</v>
       </c>
       <c r="E25">
-        <v>13.3755700567412</v>
+        <v>7.963526968383082</v>
       </c>
       <c r="F25">
-        <v>41.1506146365518</v>
+        <v>27.67518501154829</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.72751229928241</v>
+        <v>6.371661967208198</v>
       </c>
       <c r="K25">
-        <v>10.50577972462734</v>
+        <v>11.21978048873117</v>
       </c>
       <c r="L25">
-        <v>10.63698974796024</v>
+        <v>6.272185895884501</v>
       </c>
       <c r="M25">
-        <v>15.44186281151314</v>
+        <v>10.13006714968592</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.93517540902371</v>
+        <v>20.88101613898806</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.91490831198958</v>
+        <v>20.52608514349494</v>
       </c>
       <c r="C2">
-        <v>7.54510992343729</v>
+        <v>16.18187726936459</v>
       </c>
       <c r="D2">
-        <v>4.817508608328582</v>
+        <v>4.533350585141012</v>
       </c>
       <c r="E2">
-        <v>7.97622116311407</v>
+        <v>13.83803868333922</v>
       </c>
       <c r="F2">
-        <v>27.55616042640738</v>
+        <v>17.64114136519737</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.127736124042841</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.101603023982087</v>
       </c>
       <c r="J2">
-        <v>6.444149782021732</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>10.39236836798194</v>
+        <v>11.91889541456029</v>
       </c>
       <c r="L2">
-        <v>6.177705931994481</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.724795262755428</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.95938645654772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.69611054966322</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.84577481292983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14858397635173</v>
+        <v>19.22708843384763</v>
       </c>
       <c r="C3">
-        <v>7.517766199881291</v>
+        <v>15.26302146964823</v>
       </c>
       <c r="D3">
-        <v>4.682944873003427</v>
+        <v>4.364934038892374</v>
       </c>
       <c r="E3">
-        <v>7.990396661712558</v>
+        <v>13.21326329977133</v>
       </c>
       <c r="F3">
-        <v>27.5135882511176</v>
+        <v>17.1296593547248</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>1.913384611821349</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.937331936006588</v>
       </c>
       <c r="J3">
-        <v>6.495408469663362</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>9.792004981492571</v>
+        <v>12.10759334560824</v>
       </c>
       <c r="L3">
-        <v>6.116901434153299</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.447280172653954</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.04005144256026</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.63209301887439</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.67194245692146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.6565514965543</v>
+        <v>18.38199464119528</v>
       </c>
       <c r="C4">
-        <v>7.501415791604894</v>
+        <v>14.67370889127463</v>
       </c>
       <c r="D4">
-        <v>4.599954652562665</v>
+        <v>4.258100741024793</v>
       </c>
       <c r="E4">
-        <v>8.001780789045556</v>
+        <v>12.81300361385221</v>
       </c>
       <c r="F4">
-        <v>27.50539329672295</v>
+        <v>16.81883000408094</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>1.777237726792945</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.833741656905165</v>
       </c>
       <c r="J4">
-        <v>6.527959979853348</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>9.404001977575453</v>
+        <v>12.22896478682074</v>
       </c>
       <c r="L4">
-        <v>6.081205809567296</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.276066023477608</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.10243456137469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.94427062205472</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.57231523838288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.45077954746521</v>
+        <v>18.0250009902941</v>
       </c>
       <c r="C5">
-        <v>7.494861851022426</v>
+        <v>14.43908753838894</v>
       </c>
       <c r="D5">
-        <v>4.566090179977184</v>
+        <v>4.21560715471871</v>
       </c>
       <c r="E5">
-        <v>8.007083920413873</v>
+        <v>12.64385927184476</v>
       </c>
       <c r="F5">
-        <v>27.50643843882583</v>
+        <v>16.68230247519712</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>1.720462792171586</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.79133487454848</v>
       </c>
       <c r="J5">
-        <v>6.54149984416114</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.241054310085014</v>
+        <v>12.27342370814058</v>
       </c>
       <c r="L5">
-        <v>6.067078531192887</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.206185084840939</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.13098190515023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.65718867284968</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.52522226495485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.4162981882495</v>
+        <v>17.96417748656818</v>
       </c>
       <c r="C6">
-        <v>7.49378011968939</v>
+        <v>14.41414433379162</v>
       </c>
       <c r="D6">
-        <v>4.560465699716996</v>
+        <v>4.210795128071474</v>
       </c>
       <c r="E6">
-        <v>8.008004315495331</v>
+        <v>12.61315633431631</v>
       </c>
       <c r="F6">
-        <v>27.50687302593119</v>
+        <v>16.6464463800235</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>1.710799646559404</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.785066372139483</v>
       </c>
       <c r="J6">
-        <v>6.543764834578342</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.2137064867002</v>
+        <v>12.27316381951055</v>
       </c>
       <c r="L6">
-        <v>6.064758202535925</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.194577688703378</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.13590788816865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.61120934787304</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.50741248562974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65379748538482</v>
+        <v>18.37503494109448</v>
       </c>
       <c r="C7">
-        <v>7.501326963280023</v>
+        <v>14.70909831276771</v>
       </c>
       <c r="D7">
-        <v>4.599498063718924</v>
+        <v>4.263737999804113</v>
       </c>
       <c r="E7">
-        <v>8.001849633500672</v>
+        <v>12.80438565057745</v>
       </c>
       <c r="F7">
-        <v>27.50538980900644</v>
+        <v>16.7811566293395</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>1.776035923376712</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.83504745844893</v>
       </c>
       <c r="J7">
-        <v>6.528141465511996</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>9.401823915876422</v>
+        <v>12.20841692005374</v>
       </c>
       <c r="L7">
-        <v>6.081013579026922</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.275123898322455</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.10280704386105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.94631995624719</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.54422443192339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.65521862853505</v>
+        <v>20.08539273137435</v>
       </c>
       <c r="C8">
-        <v>7.535589885881408</v>
+        <v>15.91802667455718</v>
       </c>
       <c r="D8">
-        <v>4.771214803784327</v>
+        <v>4.483967490249104</v>
       </c>
       <c r="E8">
-        <v>7.980546542381712</v>
+        <v>13.61825759818175</v>
       </c>
       <c r="F8">
-        <v>27.53768116020251</v>
+        <v>17.41853573842569</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.054219812172459</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.047479599047222</v>
       </c>
       <c r="J8">
-        <v>6.461602188526401</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.18940418666201</v>
+        <v>11.95460336370823</v>
       </c>
       <c r="L8">
-        <v>6.156404800939461</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.629333926312309</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.98446682093415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.34364589674436</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.74869110540627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.44371119056729</v>
+        <v>23.06623565605768</v>
       </c>
       <c r="C9">
-        <v>7.606332800977633</v>
+        <v>18.02387568414656</v>
       </c>
       <c r="D9">
-        <v>5.103104244394376</v>
+        <v>4.876853836338016</v>
       </c>
       <c r="E9">
-        <v>7.960491935560496</v>
+        <v>15.08937609427743</v>
       </c>
       <c r="F9">
-        <v>27.74895903302824</v>
+        <v>18.74826702914019</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.565320981018372</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.440958511394976</v>
       </c>
       <c r="J9">
-        <v>6.339503220679908</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>11.57904103055586</v>
+        <v>11.54179699723486</v>
       </c>
       <c r="L9">
-        <v>6.316919952573144</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.31352565632608</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.8593059490195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.79807872613503</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.25493160719329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.67426714950539</v>
+        <v>25.08918705819897</v>
       </c>
       <c r="C10">
-        <v>7.660592858375395</v>
+        <v>19.48360598209997</v>
       </c>
       <c r="D10">
-        <v>5.34162970679576</v>
+        <v>5.178762461908749</v>
       </c>
       <c r="E10">
-        <v>7.959633053985517</v>
+        <v>15.57559022631609</v>
       </c>
       <c r="F10">
-        <v>28.00179520685031</v>
+        <v>19.55684574182871</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.897968276057642</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.715304785470972</v>
       </c>
       <c r="J10">
-        <v>6.254657804055467</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>12.50500903904417</v>
+        <v>11.17600836774625</v>
       </c>
       <c r="L10">
-        <v>6.44211545389888</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.80509575874031</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.83944781558604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.17174640599385</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.52288230010597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.2391511881857</v>
+        <v>26.49165219910315</v>
       </c>
       <c r="C11">
-        <v>7.6858040397791</v>
+        <v>20.36571405024779</v>
       </c>
       <c r="D11">
-        <v>5.448557326858029</v>
+        <v>5.57754728597458</v>
       </c>
       <c r="E11">
-        <v>7.962394503696142</v>
+        <v>11.79645666239398</v>
       </c>
       <c r="F11">
-        <v>28.13953075263307</v>
+        <v>18.53328340566155</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.506384209623613</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.811368960539373</v>
       </c>
       <c r="J11">
-        <v>6.217057769299976</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>12.90567461553148</v>
+        <v>10.27970406990172</v>
       </c>
       <c r="L11">
-        <v>6.500545197093727</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.02545398056412</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.84761270136242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.53099243982391</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.51492571254672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.4486257203103</v>
+        <v>27.27521779514065</v>
       </c>
       <c r="C12">
-        <v>7.69542955126478</v>
+        <v>20.77174119555562</v>
       </c>
       <c r="D12">
-        <v>5.488789945912793</v>
+        <v>5.852417056888788</v>
       </c>
       <c r="E12">
-        <v>7.963905101591361</v>
+        <v>9.389756558575327</v>
       </c>
       <c r="F12">
-        <v>28.19507372595709</v>
+        <v>17.52747538603413</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.568498649514837</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.838002844568975</v>
       </c>
       <c r="J12">
-        <v>6.202958115131687</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>13.05445126011007</v>
+        <v>9.680270795526209</v>
       </c>
       <c r="L12">
-        <v>6.522874691511593</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.10836782164598</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.85330820643067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.83749444052648</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.63394020175097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.40370803622446</v>
+        <v>27.65275372947828</v>
       </c>
       <c r="C13">
-        <v>7.693352984289388</v>
+        <v>20.89423936013186</v>
       </c>
       <c r="D13">
-        <v>5.480137093638246</v>
+        <v>6.060950115628851</v>
       </c>
       <c r="E13">
-        <v>7.963558903466396</v>
+        <v>8.577740264870053</v>
       </c>
       <c r="F13">
-        <v>28.18295912936349</v>
+        <v>16.3996250839469</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.776295636458437</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.815383812450675</v>
       </c>
       <c r="J13">
-        <v>6.205988636887782</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>13.02254038195591</v>
+        <v>9.25605574121246</v>
       </c>
       <c r="L13">
-        <v>6.518056730618882</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.09053537020426</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.85196367328808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.95509166772097</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.74800488461952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.25647336439079</v>
+        <v>27.73888510020046</v>
       </c>
       <c r="C14">
-        <v>7.686594345078134</v>
+        <v>20.86318190555913</v>
       </c>
       <c r="D14">
-        <v>5.451872637920795</v>
+        <v>6.1810120438607</v>
       </c>
       <c r="E14">
-        <v>7.962509396910737</v>
+        <v>9.201247655489903</v>
       </c>
       <c r="F14">
-        <v>28.14403178870387</v>
+        <v>15.53574585628801</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.671886778917773</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.778455662869522</v>
       </c>
       <c r="J14">
-        <v>6.21589503054318</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>12.91797353792695</v>
+        <v>9.053756374925893</v>
       </c>
       <c r="L14">
-        <v>6.502378232509434</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.03228632430564</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.8480283360691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.52701224780733</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.11991792917598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16571188459891</v>
+        <v>27.67209362087983</v>
       </c>
       <c r="C15">
-        <v>7.682464801776195</v>
+        <v>20.80656504590249</v>
       </c>
       <c r="D15">
-        <v>5.434525298724656</v>
+        <v>6.197848616601959</v>
       </c>
       <c r="E15">
-        <v>7.961927435815658</v>
+        <v>9.484227164023554</v>
       </c>
       <c r="F15">
-        <v>28.12063202292009</v>
+        <v>15.28790405081496</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.876671340066867</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.759153980016888</v>
       </c>
       <c r="J15">
-        <v>6.221980899602187</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>12.85353997547219</v>
+        <v>9.03286518362269</v>
       </c>
       <c r="L15">
-        <v>6.492800924725605</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>10.99653622809842</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.8459608185712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.13656251233096</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.95930742378251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.6367272383294</v>
+        <v>26.8044349214289</v>
       </c>
       <c r="C16">
-        <v>7.65895609315817</v>
+        <v>20.21434318456354</v>
       </c>
       <c r="D16">
-        <v>5.334607187926509</v>
+        <v>6.043689382672619</v>
       </c>
       <c r="E16">
-        <v>7.95951700459269</v>
+        <v>9.313071796003831</v>
       </c>
       <c r="F16">
-        <v>27.99326124099967</v>
+        <v>15.08723253189516</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.605161339591044</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.648055723408679</v>
       </c>
       <c r="J16">
-        <v>6.25713471584047</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>12.47841156856414</v>
+        <v>9.282611477849469</v>
       </c>
       <c r="L16">
-        <v>6.438325888562277</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.79062373659917</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.83927139436915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.80475089012486</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.98838615328737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.30547395843417</v>
+        <v>26.07369368081615</v>
       </c>
       <c r="C17">
-        <v>7.644671288982884</v>
+        <v>19.76851390514462</v>
       </c>
       <c r="D17">
-        <v>5.272882707263856</v>
+        <v>5.856855687521167</v>
       </c>
       <c r="E17">
-        <v>7.958853826408473</v>
+        <v>8.658525850432399</v>
       </c>
       <c r="F17">
-        <v>27.92102771408276</v>
+        <v>15.40990521728686</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.871302606205202</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.582218396232513</v>
       </c>
       <c r="J17">
-        <v>6.278952446382342</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>12.24302130373304</v>
+        <v>9.56878829897742</v>
       </c>
       <c r="L17">
-        <v>6.405279190544047</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.66342145271464</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.83966460243215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.34571771839156</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.34699403096787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.12692621473959</v>
+        <v>25.39278055257107</v>
       </c>
       <c r="C18">
-        <v>7.636504568813937</v>
+        <v>19.37988036116514</v>
       </c>
       <c r="D18">
-        <v>5.237233466618047</v>
+        <v>5.619502740226538</v>
       </c>
       <c r="E18">
-        <v>7.958768372697785</v>
+        <v>8.557618621692962</v>
       </c>
       <c r="F18">
-        <v>27.88161246380497</v>
+        <v>16.23821478985353</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.709772571793362</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.548114165822079</v>
       </c>
       <c r="J18">
-        <v>6.291595519051087</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.1056946586826</v>
+        <v>9.966954812882236</v>
       </c>
       <c r="L18">
-        <v>6.386411229175105</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.5899544996855</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.84150158827136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.70161974667017</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.04856863754466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.06607625068645</v>
+        <v>24.81269551325781</v>
       </c>
       <c r="C19">
-        <v>7.633747887218949</v>
+        <v>19.13575296264828</v>
       </c>
       <c r="D19">
-        <v>5.225139027363276</v>
+        <v>5.3778954857682</v>
       </c>
       <c r="E19">
-        <v>7.958789925366877</v>
+        <v>10.37311307289491</v>
       </c>
       <c r="F19">
-        <v>27.86862956811217</v>
+        <v>17.34098850544377</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.483679654915079</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.552085580588234</v>
       </c>
       <c r="J19">
-        <v>6.29589254478013</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.05886542999278</v>
+        <v>10.45364230318084</v>
       </c>
       <c r="L19">
-        <v>6.380047121194786</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.56502974057164</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.84239628727367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.59944752109555</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.9333690877235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.33995387341228</v>
+        <v>24.57157554865939</v>
       </c>
       <c r="C20">
-        <v>7.646186787267172</v>
+        <v>19.20649865287205</v>
       </c>
       <c r="D20">
-        <v>5.279468832492127</v>
+        <v>5.11952453295681</v>
       </c>
       <c r="E20">
-        <v>7.958893705669294</v>
+        <v>15.41116610851758</v>
       </c>
       <c r="F20">
-        <v>27.92849561827138</v>
+        <v>19.24021861090636</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.808643158880674</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.650530230433193</v>
       </c>
       <c r="J20">
-        <v>6.276620206664943</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>12.2682793539917</v>
+        <v>11.1991665797154</v>
       </c>
       <c r="L20">
-        <v>6.408782683504953</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.67699424680842</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.83945509375381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.82247170122852</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.36519445920821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.29983969879073</v>
+        <v>25.95668471440017</v>
       </c>
       <c r="C21">
-        <v>7.68857736570067</v>
+        <v>20.22566002878706</v>
       </c>
       <c r="D21">
-        <v>5.460181843758403</v>
+        <v>5.295533417645752</v>
       </c>
       <c r="E21">
-        <v>7.962804951541498</v>
+        <v>16.54974284011558</v>
       </c>
       <c r="F21">
-        <v>28.15537288237386</v>
+        <v>20.12644881765537</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>3.094305841901242</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.862239467589371</v>
       </c>
       <c r="J21">
-        <v>6.212981557292532</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>12.94876721878692</v>
+        <v>11.07535902648798</v>
       </c>
       <c r="L21">
-        <v>6.506977938086274</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.04941035142199</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.84911252455339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>22.22649468862385</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.79848062984266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.9013563049395</v>
+        <v>26.855137542878</v>
       </c>
       <c r="C22">
-        <v>7.716741581572039</v>
+        <v>20.84391065522926</v>
       </c>
       <c r="D22">
-        <v>5.576769170706071</v>
+        <v>5.415145165504621</v>
       </c>
       <c r="E22">
-        <v>7.968076509346416</v>
+        <v>17.02223642828518</v>
       </c>
       <c r="F22">
-        <v>28.32343633761002</v>
+        <v>20.66122211112857</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>3.265807537934705</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.994195773412194</v>
       </c>
       <c r="J22">
-        <v>6.172195958015912</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>13.37633830014882</v>
+        <v>10.98791342309638</v>
       </c>
       <c r="L22">
-        <v>6.572335853955362</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.28968708671761</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.87066264931502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>22.97235022775704</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.0544763324006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.58266110790795</v>
+        <v>26.3811765908922</v>
       </c>
       <c r="C23">
-        <v>7.701666798754368</v>
+        <v>20.48163722963765</v>
       </c>
       <c r="D23">
-        <v>5.514692785003157</v>
+        <v>5.345351448460026</v>
       </c>
       <c r="E23">
-        <v>7.96501062759318</v>
+        <v>16.77718040483685</v>
       </c>
       <c r="F23">
-        <v>28.23188897116688</v>
+        <v>20.41084798564481</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>3.174935103223768</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.921372927408035</v>
       </c>
       <c r="J23">
-        <v>6.193891842207776</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>13.14970156182684</v>
+        <v>11.05963778768018</v>
       </c>
       <c r="L23">
-        <v>6.537347924237967</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.16175082004987</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.85772281484878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>22.57207115127498</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.94625002560836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.32382524767164</v>
+        <v>24.50120355320184</v>
       </c>
       <c r="C24">
-        <v>7.645501488020017</v>
+        <v>19.11528550969366</v>
       </c>
       <c r="D24">
-        <v>5.276491750597106</v>
+        <v>5.08327308357052</v>
       </c>
       <c r="E24">
-        <v>7.958874755730573</v>
+        <v>15.80832871764515</v>
       </c>
       <c r="F24">
-        <v>27.92511280700653</v>
+        <v>19.40668439081788</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.823676480557318</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.645612754523812</v>
       </c>
       <c r="J24">
-        <v>6.277674301134979</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>12.25686641238875</v>
+        <v>11.30706577451051</v>
       </c>
       <c r="L24">
-        <v>6.407198345530777</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.67085903041925</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.8395448048073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.00134446481131</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.50543157890949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.97917895449291</v>
+        <v>22.2968124639164</v>
       </c>
       <c r="C25">
-        <v>7.586803041608142</v>
+        <v>17.53587799562737</v>
       </c>
       <c r="D25">
-        <v>5.014094631615486</v>
+        <v>4.784142454384527</v>
       </c>
       <c r="E25">
-        <v>7.963526968383082</v>
+        <v>14.69642140141478</v>
       </c>
       <c r="F25">
-        <v>27.67518501154829</v>
+        <v>18.32848640176797</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.430029827732457</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.340006271925921</v>
       </c>
       <c r="J25">
-        <v>6.371661967208198</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.21978048873117</v>
+        <v>11.60919299000672</v>
       </c>
       <c r="L25">
-        <v>6.272185895884501</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.13006714968592</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.88101613898806</v>
+        <v>19.17282198898315</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.06450531979112</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.52608514349494</v>
+        <v>20.53356388626242</v>
       </c>
       <c r="C2">
-        <v>16.18187726936459</v>
+        <v>16.55513962579461</v>
       </c>
       <c r="D2">
-        <v>4.533350585141012</v>
+        <v>4.58855258609513</v>
       </c>
       <c r="E2">
-        <v>13.83803868333922</v>
+        <v>13.8080228332554</v>
       </c>
       <c r="F2">
-        <v>17.64114136519737</v>
+        <v>17.18609786161184</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.127736124042841</v>
+        <v>2.142562612255521</v>
       </c>
       <c r="I2">
-        <v>3.101603023982087</v>
+        <v>3.140220475657174</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>11.91889541456029</v>
+        <v>11.56296162848549</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.68153951173631</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.433883680354158</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.69611054966322</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.84577481292983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.76932999149116</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.46925449787642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.22708843384763</v>
+        <v>19.24878236476706</v>
       </c>
       <c r="C3">
-        <v>15.26302146964823</v>
+        <v>15.53079739103276</v>
       </c>
       <c r="D3">
-        <v>4.364934038892374</v>
+        <v>4.398328743346201</v>
       </c>
       <c r="E3">
-        <v>13.21326329977133</v>
+        <v>13.21011874432482</v>
       </c>
       <c r="F3">
-        <v>17.1296593547248</v>
+        <v>16.74431071768642</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.913384611821349</v>
+        <v>1.934552051905512</v>
       </c>
       <c r="I3">
-        <v>2.937331936006588</v>
+        <v>2.992561677999805</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>12.10759334560824</v>
+        <v>11.77963586970398</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.8909505337014</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.562766801610438</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.63209301887439</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.67194245692146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.69515020777576</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.34813232942418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.38199464119528</v>
+        <v>18.41314172551372</v>
       </c>
       <c r="C4">
-        <v>14.67370889127463</v>
+        <v>14.87262981145525</v>
       </c>
       <c r="D4">
-        <v>4.258100741024793</v>
+        <v>4.27763063747874</v>
       </c>
       <c r="E4">
-        <v>12.81300361385221</v>
+        <v>12.82744281393205</v>
       </c>
       <c r="F4">
-        <v>16.81883000408094</v>
+        <v>16.47589561477069</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.777237726792945</v>
+        <v>1.80240047127919</v>
       </c>
       <c r="I4">
-        <v>2.833741656905165</v>
+        <v>2.89956782991746</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>12.22896478682074</v>
+        <v>11.91653980766724</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.02343197945189</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.666064142009947</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.94427062205472</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.57231523838288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.00060745982661</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.27981853452406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0250009902941</v>
+        <v>18.06021863829422</v>
       </c>
       <c r="C5">
-        <v>14.43908753838894</v>
+        <v>14.60861898189395</v>
       </c>
       <c r="D5">
-        <v>4.21560715471871</v>
+        <v>4.229350810503677</v>
       </c>
       <c r="E5">
-        <v>12.64385927184476</v>
+        <v>12.66581886359484</v>
       </c>
       <c r="F5">
-        <v>16.68230247519712</v>
+        <v>16.35699231912755</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.720462792171586</v>
+        <v>1.747283238925014</v>
       </c>
       <c r="I5">
-        <v>2.79133487454848</v>
+        <v>2.861812369441776</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>12.27342370814058</v>
+        <v>11.96747954258271</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.07292759047263</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.710943821906512</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.65718867284968</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.52522226495485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.71059136685947</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.24561514114549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.96417748656818</v>
+        <v>18.0001069649412</v>
       </c>
       <c r="C6">
-        <v>14.41414433379162</v>
+        <v>14.57834811225901</v>
       </c>
       <c r="D6">
-        <v>4.210795128071474</v>
+        <v>4.223536851375664</v>
       </c>
       <c r="E6">
-        <v>12.61315633431631</v>
+        <v>12.63648206414464</v>
       </c>
       <c r="F6">
-        <v>16.6464463800235</v>
+        <v>16.32466125715584</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.710799646559404</v>
+        <v>1.73790028763753</v>
       </c>
       <c r="I6">
-        <v>2.785066372139483</v>
+        <v>2.856641152889315</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>12.27316381951055</v>
+        <v>11.96893172028901</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.07453168934372</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.715065138071413</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.61120934787304</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.50741248562974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.66401957616938</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.23044282069335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.37503494109448</v>
+        <v>18.40629985564622</v>
       </c>
       <c r="C7">
-        <v>14.70909831276771</v>
+        <v>14.90657792156994</v>
       </c>
       <c r="D7">
-        <v>4.263737999804113</v>
+        <v>4.283097936446713</v>
       </c>
       <c r="E7">
-        <v>12.80438565057745</v>
+        <v>12.81919692290702</v>
       </c>
       <c r="F7">
-        <v>16.7811566293395</v>
+        <v>16.44013435379082</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.776035923376712</v>
+        <v>1.801230210178884</v>
       </c>
       <c r="I7">
-        <v>2.83504745844893</v>
+        <v>2.901749347269309</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>12.20841692005374</v>
+        <v>11.89798623203719</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.00645456906036</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.65580053841502</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.94631995624719</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.54422443192339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.00235445425706</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.25333730260207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.08539273137435</v>
+        <v>20.09771657496146</v>
       </c>
       <c r="C8">
-        <v>15.91802667455718</v>
+        <v>16.25440400666608</v>
       </c>
       <c r="D8">
-        <v>4.483967490249104</v>
+        <v>4.531639677663318</v>
       </c>
       <c r="E8">
-        <v>13.61825759818175</v>
+        <v>13.59762457888346</v>
       </c>
       <c r="F8">
-        <v>17.41853573842569</v>
+        <v>16.98977113803944</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.054219812172459</v>
+        <v>2.071226263485275</v>
       </c>
       <c r="I8">
-        <v>3.047479599047222</v>
+        <v>3.092745388550522</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>11.95460336370823</v>
+        <v>11.61163224252318</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.73207938750758</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.455413207786791</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.34364589674436</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.74869110540627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.41314026949467</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.39251850256723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.06623565605768</v>
+        <v>23.04642387764473</v>
       </c>
       <c r="C9">
-        <v>18.02387568414656</v>
+        <v>18.60174947388306</v>
       </c>
       <c r="D9">
-        <v>4.876853836338016</v>
+        <v>4.976006148099182</v>
       </c>
       <c r="E9">
-        <v>15.08937609427743</v>
+        <v>15.0073462863496</v>
       </c>
       <c r="F9">
-        <v>18.74826702914019</v>
+        <v>18.14400040439362</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.565320981018372</v>
+        <v>2.566997635414068</v>
       </c>
       <c r="I9">
-        <v>3.440958511394976</v>
+        <v>3.445966483209099</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>11.54179699723486</v>
+        <v>11.11636330511538</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.25178969326029</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.291664617872579</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.79807872613503</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.25493160719329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.89036322321783</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.76097923914312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.08918705819897</v>
+        <v>25.04904590255611</v>
       </c>
       <c r="C10">
-        <v>19.48360598209997</v>
+        <v>20.20301812160946</v>
       </c>
       <c r="D10">
-        <v>5.178762461908749</v>
+        <v>5.310509199258195</v>
       </c>
       <c r="E10">
-        <v>15.57559022631609</v>
+        <v>15.45687217085567</v>
       </c>
       <c r="F10">
-        <v>19.55684574182871</v>
+        <v>18.84384299526191</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.897968276057642</v>
+        <v>2.888957084328366</v>
       </c>
       <c r="I10">
-        <v>3.715304785470972</v>
+        <v>3.693326486672192</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>11.17600836774625</v>
+        <v>10.69884629728025</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.870771959613057</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.233944221495557</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.17174640599385</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.52288230010597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.27563152315852</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.94074832000175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.49165219910315</v>
+        <v>26.44980090124123</v>
       </c>
       <c r="C11">
-        <v>20.36571405024779</v>
+        <v>21.01154103644484</v>
       </c>
       <c r="D11">
-        <v>5.57754728597458</v>
+        <v>5.702521269138145</v>
       </c>
       <c r="E11">
-        <v>11.79645666239398</v>
+        <v>11.69091410850312</v>
       </c>
       <c r="F11">
-        <v>18.53328340566155</v>
+        <v>17.9166195927803</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.506384209623613</v>
+        <v>3.496390560902759</v>
       </c>
       <c r="I11">
-        <v>3.811368960539373</v>
+        <v>3.782020548019818</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>10.27970406990172</v>
+        <v>9.938589604908001</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.380551816353604</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.632977633539879</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.53099243982391</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.51492571254672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.61924749074719</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.02141098358618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.27521779514065</v>
+        <v>27.23567081441289</v>
       </c>
       <c r="C12">
-        <v>20.77174119555562</v>
+        <v>21.32593284747027</v>
       </c>
       <c r="D12">
-        <v>5.852417056888788</v>
+        <v>5.962991007830261</v>
       </c>
       <c r="E12">
-        <v>9.389756558575327</v>
+        <v>9.309050408853459</v>
       </c>
       <c r="F12">
-        <v>17.52747538603413</v>
+        <v>17.01387131220149</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.568498649514837</v>
+        <v>4.560469873388192</v>
       </c>
       <c r="I12">
-        <v>3.838002844568975</v>
+        <v>3.80591223755501</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>9.680270795526209</v>
+        <v>9.455907305365434</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.110887059784513</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.165637250031771</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.83749444052648</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.63394020175097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.91028626363025</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.23258117651284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.65275372947828</v>
+        <v>27.61885100851793</v>
       </c>
       <c r="C13">
-        <v>20.89423936013186</v>
+        <v>21.33374487346609</v>
       </c>
       <c r="D13">
-        <v>6.060950115628851</v>
+        <v>6.1505341451481</v>
       </c>
       <c r="E13">
-        <v>8.577740264870053</v>
+        <v>8.53575170375483</v>
       </c>
       <c r="F13">
-        <v>16.3996250839469</v>
+        <v>16.00564782371723</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.776295636458437</v>
+        <v>5.770559035163779</v>
       </c>
       <c r="I13">
-        <v>3.815383812450675</v>
+        <v>3.785308628414241</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>9.25605574121246</v>
+        <v>9.137267139989822</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.955898263018788</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.769195605822748</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.95509166772097</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.74800488461952</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.01077007941437</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.45048926386741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.73888510020046</v>
+        <v>27.71045439593793</v>
       </c>
       <c r="C14">
-        <v>20.86318190555913</v>
+        <v>21.21003980492659</v>
       </c>
       <c r="D14">
-        <v>6.1810120438607</v>
+        <v>6.25260978249258</v>
       </c>
       <c r="E14">
-        <v>9.201247655489903</v>
+        <v>9.184037286791067</v>
       </c>
       <c r="F14">
-        <v>15.53574585628801</v>
+        <v>15.23451043862738</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.671886778917773</v>
+        <v>6.667583292277064</v>
       </c>
       <c r="I14">
-        <v>3.778455662869522</v>
+        <v>3.752160571763097</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>9.053756374925893</v>
+        <v>8.997533968960154</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.894526749348499</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.546677819585774</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.52701224780733</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.11991792917598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.56961172469402</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.90038149311904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.67209362087983</v>
+        <v>27.64578224616041</v>
       </c>
       <c r="C15">
-        <v>20.80656504590249</v>
+        <v>21.12529214743902</v>
       </c>
       <c r="D15">
-        <v>6.197848616601959</v>
+        <v>6.263778203245305</v>
       </c>
       <c r="E15">
-        <v>9.484227164023554</v>
+        <v>9.472203987510431</v>
       </c>
       <c r="F15">
-        <v>15.28790405081496</v>
+        <v>15.0133882634596</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.876671340066867</v>
+        <v>6.872823693259244</v>
       </c>
       <c r="I15">
-        <v>3.759153980016888</v>
+        <v>3.735302427280297</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>9.03286518362269</v>
+        <v>8.989712636589218</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.892634623538335</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.509828359334828</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.13656251233096</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.95930742378251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.17550171980744</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.76141842411459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.8044349214289</v>
+        <v>26.7855502909329</v>
       </c>
       <c r="C16">
-        <v>20.21434318456354</v>
+        <v>20.48988409374659</v>
       </c>
       <c r="D16">
-        <v>6.043689382672619</v>
+        <v>6.099839088057232</v>
       </c>
       <c r="E16">
-        <v>9.313071796003831</v>
+        <v>9.309622043261067</v>
       </c>
       <c r="F16">
-        <v>15.08723253189516</v>
+        <v>14.84190170408224</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.605161339591044</v>
+        <v>6.60293736014288</v>
       </c>
       <c r="I16">
-        <v>3.648055723408679</v>
+        <v>3.635874659095876</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>9.282611477849469</v>
+        <v>9.22745515847391</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.015138662517092</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.670771710155754</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.80475089012486</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.98838615328737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.84075088026936</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.80934898036297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.07369368081615</v>
+        <v>26.05762463777582</v>
       </c>
       <c r="C17">
-        <v>19.76851390514462</v>
+        <v>20.06196943549354</v>
       </c>
       <c r="D17">
-        <v>5.856855687521167</v>
+        <v>5.915352757188711</v>
       </c>
       <c r="E17">
-        <v>8.658525850432399</v>
+        <v>8.653699683508409</v>
       </c>
       <c r="F17">
-        <v>15.40990521728686</v>
+        <v>15.13601332499701</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.871302606205202</v>
+        <v>5.869914910497117</v>
       </c>
       <c r="I17">
-        <v>3.582218396232513</v>
+        <v>3.577107346053201</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>9.56878829897742</v>
+        <v>9.477171624620171</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.154165383855489</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.886753675819915</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.34571771839156</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.34699403096787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.38676197641516</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.14115426029081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.39278055257107</v>
+        <v>25.37562082527367</v>
       </c>
       <c r="C18">
-        <v>19.37988036116514</v>
+        <v>19.74728841986192</v>
       </c>
       <c r="D18">
-        <v>5.619502740226538</v>
+        <v>5.690672976734787</v>
       </c>
       <c r="E18">
-        <v>8.557618621692962</v>
+        <v>8.534050430876887</v>
       </c>
       <c r="F18">
-        <v>16.23821478985353</v>
+        <v>15.88196221623526</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.709772571793362</v>
+        <v>4.708689284642023</v>
       </c>
       <c r="I18">
-        <v>3.548114165822079</v>
+        <v>3.545535075003542</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>9.966954812882236</v>
+        <v>9.804879620701783</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.353548725754571</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.193335319680453</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.70161974667017</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.04856863754466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.75542764698779</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.77231873185239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.81269551325781</v>
+        <v>24.7912456998874</v>
       </c>
       <c r="C19">
-        <v>19.13575296264828</v>
+        <v>19.6124654707784</v>
       </c>
       <c r="D19">
-        <v>5.3778954857682</v>
+        <v>5.467373679599554</v>
       </c>
       <c r="E19">
-        <v>10.37311307289491</v>
+        <v>10.31600327987586</v>
       </c>
       <c r="F19">
-        <v>17.34098850544377</v>
+        <v>16.86876172835212</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.483679654915079</v>
+        <v>3.482103761204074</v>
       </c>
       <c r="I19">
-        <v>3.552085580588234</v>
+        <v>3.549751179592127</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>10.45364230318084</v>
+        <v>10.19070620377585</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.597837392697519</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.565352829379902</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.59944752109555</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.9333690877235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.67062004763307</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.55810033950137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.57157554865939</v>
+        <v>24.53687877380321</v>
       </c>
       <c r="C20">
-        <v>19.20649865287205</v>
+        <v>19.88613444285127</v>
       </c>
       <c r="D20">
-        <v>5.11952453295681</v>
+        <v>5.24252460697389</v>
       </c>
       <c r="E20">
-        <v>15.41116610851758</v>
+        <v>15.30272288715752</v>
       </c>
       <c r="F20">
-        <v>19.24021861090636</v>
+        <v>18.56104541121733</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.808643158880674</v>
+        <v>2.802459280708312</v>
       </c>
       <c r="I20">
-        <v>3.650530230433193</v>
+        <v>3.638422116678504</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>11.1991665797154</v>
+        <v>10.74587366872256</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.930152862263029</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.181653951323764</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.82247170122852</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.36519445920821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.92271571246222</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.81152494136025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.95668471440017</v>
+        <v>25.90562170472415</v>
       </c>
       <c r="C21">
-        <v>20.22566002878706</v>
+        <v>21.03205804309076</v>
       </c>
       <c r="D21">
-        <v>5.295533417645752</v>
+        <v>5.445933370091835</v>
       </c>
       <c r="E21">
-        <v>16.54974284011558</v>
+        <v>16.40944873378091</v>
       </c>
       <c r="F21">
-        <v>20.12644881765537</v>
+        <v>19.33848219642767</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.094305841901242</v>
+        <v>3.079689475498589</v>
       </c>
       <c r="I21">
-        <v>3.862239467589371</v>
+        <v>3.828665925316024</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>11.07535902648798</v>
+        <v>10.54880826121407</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.718803715740536</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.292211155488999</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.22649468862385</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.79848062984266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.33854869020619</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.15306535876674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.855137542878</v>
+        <v>26.79400299852406</v>
       </c>
       <c r="C22">
-        <v>20.84391065522926</v>
+        <v>21.72286954452158</v>
       </c>
       <c r="D22">
-        <v>5.415145165504621</v>
+        <v>5.581834458771644</v>
       </c>
       <c r="E22">
-        <v>17.02223642828518</v>
+        <v>16.86341798623373</v>
       </c>
       <c r="F22">
-        <v>20.66122211112857</v>
+        <v>19.81008877843033</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.265807537934705</v>
+        <v>3.245793967445624</v>
       </c>
       <c r="I22">
-        <v>3.994195773412194</v>
+        <v>3.945908126186574</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>10.98791342309638</v>
+        <v>10.41604358001711</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.575944571243909</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.384248589220622</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.97235022775704</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.0544763324006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.0906058559592</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.35499261924079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.3811765908922</v>
+        <v>26.3253189437455</v>
       </c>
       <c r="C23">
-        <v>20.48163722963765</v>
+        <v>21.32336843134999</v>
       </c>
       <c r="D23">
-        <v>5.345351448460026</v>
+        <v>5.503524636260472</v>
       </c>
       <c r="E23">
-        <v>16.77718040483685</v>
+        <v>16.62790567488333</v>
       </c>
       <c r="F23">
-        <v>20.41084798564481</v>
+        <v>19.59159828388591</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.174935103223768</v>
+        <v>3.157782780071098</v>
       </c>
       <c r="I23">
-        <v>3.921372927408035</v>
+        <v>3.879810744958939</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>11.05963778768018</v>
+        <v>10.50867015340107</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.664512481482914</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.355300195661838</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.57207115127498</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.94625002560836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.68730085657576</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.2739429220493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.50120355320184</v>
+        <v>24.46599127080866</v>
       </c>
       <c r="C24">
-        <v>19.11528550969366</v>
+        <v>19.8069032173913</v>
       </c>
       <c r="D24">
-        <v>5.08327308357052</v>
+        <v>5.207734023250167</v>
       </c>
       <c r="E24">
-        <v>15.80832871764515</v>
+        <v>15.69734176404011</v>
       </c>
       <c r="F24">
-        <v>19.40668439081788</v>
+        <v>18.71324610018807</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.823676480557318</v>
+        <v>2.817453224710901</v>
       </c>
       <c r="I24">
-        <v>3.645612754523812</v>
+        <v>3.631708926646127</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>11.30706577451051</v>
+        <v>10.83547991175438</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.988010713545075</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.263805361172642</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.00134446481131</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.50543157890949</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.10365367707798</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.93888842908631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.2968124639164</v>
+        <v>22.28534264987739</v>
       </c>
       <c r="C25">
-        <v>17.53587799562737</v>
+        <v>18.05011040115243</v>
       </c>
       <c r="D25">
-        <v>4.784142454384527</v>
+        <v>4.869706093075194</v>
       </c>
       <c r="E25">
-        <v>14.69642140141478</v>
+        <v>14.63053462331264</v>
       </c>
       <c r="F25">
-        <v>18.32848640176797</v>
+        <v>17.77430303855531</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.430029827732457</v>
+        <v>2.435804939540943</v>
       </c>
       <c r="I25">
-        <v>3.340006271925921</v>
+        <v>3.35712404612982</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>11.60919299000672</v>
+        <v>11.21252349235112</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.35401204747077</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.283220819364583</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.17282198898315</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.06450531979112</v>
+        <v>19.25899584516846</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.6110974174087</v>
       </c>
     </row>
   </sheetData>
